--- a/raw_data/BTC-USD_4h_process.xlsx
+++ b/raw_data/BTC-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>43507.28125</v>
+        <v>43009.13671875</v>
       </c>
       <c r="C2">
-        <v>43683.16015625</v>
+        <v>43475.546875</v>
       </c>
       <c r="D2">
-        <v>43290.62890625</v>
+        <v>42221.5546875</v>
       </c>
       <c r="E2">
-        <v>43436.73046875</v>
+        <v>42600.1484375</v>
       </c>
       <c r="F2">
-        <v>315713536</v>
+        <v>1910214656</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>43468.19921875</v>
+        <v>42622.37109375</v>
       </c>
       <c r="C3">
-        <v>43804.78125</v>
+        <v>42969.5</v>
       </c>
       <c r="D3">
-        <v>43363.14453125</v>
+        <v>42581.83984375</v>
       </c>
       <c r="E3">
-        <v>43440.046875</v>
+        <v>42837.3984375</v>
       </c>
       <c r="F3">
-        <v>984866816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>43445.25</v>
+        <v>42855.81640625</v>
       </c>
       <c r="C4">
-        <v>43628.5546875</v>
+        <v>43230.19140625</v>
       </c>
       <c r="D4">
-        <v>42879.93359375</v>
+        <v>42675.17578125</v>
       </c>
       <c r="E4">
-        <v>43055.3671875</v>
+        <v>43119.53125</v>
       </c>
       <c r="F4">
-        <v>564516864</v>
+        <v>591581184</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>43053.296875</v>
+        <v>43134.48828125</v>
       </c>
       <c r="C5">
-        <v>43202.09765625</v>
+        <v>43279.23828125</v>
       </c>
       <c r="D5">
-        <v>42911.23046875</v>
+        <v>42838.32421875</v>
       </c>
       <c r="E5">
-        <v>43082.50390625</v>
+        <v>42838.32421875</v>
       </c>
       <c r="F5">
-        <v>77250560</v>
+        <v>483745792</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>43082.02734375</v>
+        <v>42816.296875</v>
       </c>
       <c r="C6">
-        <v>43150.0625</v>
+        <v>43265.33203125</v>
       </c>
       <c r="D6">
-        <v>42438.7890625</v>
+        <v>42761.1015625</v>
       </c>
       <c r="E6">
-        <v>42460.9453125</v>
+        <v>43212.22265625</v>
       </c>
       <c r="F6">
-        <v>311037952</v>
+        <v>282898432</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>42450.19140625</v>
+        <v>43215.875</v>
       </c>
       <c r="C7">
-        <v>42667.1640625</v>
+        <v>44292.71875</v>
       </c>
       <c r="D7">
-        <v>42318.55078125</v>
+        <v>43159.66015625</v>
       </c>
       <c r="E7">
-        <v>42655.10546875</v>
+        <v>44122.6484375</v>
       </c>
       <c r="F7">
-        <v>36464640</v>
+        <v>257601536</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,16 +1134,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>42626.72265625</v>
+        <v>44083.94140625</v>
       </c>
       <c r="C8">
-        <v>42772.8828125</v>
+        <v>44471.59375</v>
       </c>
       <c r="D8">
-        <v>42374.35546875</v>
+        <v>43854.80859375</v>
       </c>
       <c r="E8">
-        <v>42630.51953125</v>
+        <v>44017.75390625</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>42614.64453125</v>
+        <v>44023.69140625</v>
       </c>
       <c r="C9">
-        <v>42784.234375</v>
+        <v>44770.0234375</v>
       </c>
       <c r="D9">
-        <v>42216.6875</v>
+        <v>43973.2734375</v>
       </c>
       <c r="E9">
-        <v>42729.58203125</v>
+        <v>44200.71484375</v>
       </c>
       <c r="F9">
-        <v>1271283712</v>
+        <v>2445285376</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>42717.8671875</v>
+        <v>44192.98046875</v>
       </c>
       <c r="C10">
-        <v>42780.47265625</v>
+        <v>44308.4453125</v>
       </c>
       <c r="D10">
-        <v>42273.0703125</v>
+        <v>42784.71875</v>
       </c>
       <c r="E10">
-        <v>42320.85546875</v>
+        <v>43506.32421875</v>
       </c>
       <c r="F10">
-        <v>52424704</v>
+        <v>3864291328</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>42318.57421875</v>
+        <v>43507.3671875</v>
       </c>
       <c r="C11">
-        <v>42934.06640625</v>
+        <v>43923.0546875</v>
       </c>
       <c r="D11">
-        <v>42318.57421875</v>
+        <v>43336.67578125</v>
       </c>
       <c r="E11">
-        <v>42920.796875</v>
+        <v>43822.0078125</v>
       </c>
       <c r="F11">
-        <v>679204864</v>
+        <v>844593152</v>
       </c>
       <c r="L11">
-        <v>47.65658351309474</v>
+        <v>63.64348382282463</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>42913.87890625</v>
+        <v>43818.16015625</v>
       </c>
       <c r="C12">
-        <v>43124.32421875</v>
+        <v>44269.05078125</v>
       </c>
       <c r="D12">
-        <v>42222.96875</v>
+        <v>43620.58984375</v>
       </c>
       <c r="E12">
-        <v>42343.6640625</v>
+        <v>43792.96484375</v>
       </c>
       <c r="F12">
-        <v>517906432</v>
+        <v>1063927808</v>
       </c>
       <c r="L12">
-        <v>34.53184176238391</v>
+        <v>62.74506828627475</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>42287.74609375</v>
+        <v>43791.71484375</v>
       </c>
       <c r="C13">
-        <v>42373.921875</v>
+        <v>44110.15234375</v>
       </c>
       <c r="D13">
-        <v>41719.61328125</v>
+        <v>43353.71875</v>
       </c>
       <c r="E13">
-        <v>42124.3359375</v>
+        <v>43474.86328125</v>
       </c>
       <c r="F13">
-        <v>2412365824</v>
+        <v>810258432</v>
       </c>
       <c r="L13">
-        <v>30.89423019596268</v>
+        <v>53.44825412288071</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>42134.2421875</v>
+        <v>43552.0703125</v>
       </c>
       <c r="C14">
-        <v>42219.2578125</v>
+        <v>43782.30859375</v>
       </c>
       <c r="D14">
-        <v>41424.0625</v>
+        <v>43173.01171875</v>
       </c>
       <c r="E14">
-        <v>42100.3671875</v>
+        <v>43624.01953125</v>
       </c>
       <c r="F14">
-        <v>1296711680</v>
+        <v>231845888</v>
       </c>
       <c r="L14">
-        <v>30.49923742901926</v>
+        <v>56.82295760593269</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,25 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>42091.75390625</v>
+        <v>43632.421875</v>
       </c>
       <c r="C15">
-        <v>42216.59375</v>
+        <v>44353.28515625</v>
       </c>
       <c r="D15">
-        <v>41846.0859375</v>
+        <v>43632.421875</v>
       </c>
       <c r="E15">
-        <v>41991.03125</v>
+        <v>44160.76171875</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>311697408</v>
       </c>
       <c r="L15">
-        <v>28.6213402833829</v>
-      </c>
-      <c r="N15" t="s">
-        <v>195</v>
+        <v>66.61943826417078</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1312,28 +1309,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>41985.1875</v>
+        <v>44178.953125</v>
       </c>
       <c r="C16">
-        <v>42155.8046875</v>
+        <v>44227.6328125</v>
       </c>
       <c r="D16">
-        <v>41958.8984375</v>
+        <v>43868.73828125</v>
       </c>
       <c r="E16">
-        <v>41958.8984375</v>
+        <v>43983.96875</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>28.0503104192496</v>
+        <v>61.45277153139245</v>
       </c>
       <c r="M16">
-        <v>28.24446525864411</v>
-      </c>
-      <c r="N16" t="s">
-        <v>195</v>
+        <v>62.56162728227948</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1341,28 +1335,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>41955.23828125</v>
+        <v>43982.88671875</v>
       </c>
       <c r="C17">
-        <v>41996.8125</v>
+        <v>43988.828125</v>
       </c>
       <c r="D17">
-        <v>41556.2265625</v>
+        <v>43475.15625</v>
       </c>
       <c r="E17">
-        <v>41903.08984375</v>
+        <v>43696.42578125</v>
       </c>
       <c r="F17">
-        <v>160475136</v>
+        <v>68141056</v>
       </c>
       <c r="L17">
-        <v>26.99785670594423</v>
+        <v>53.81597866679348</v>
       </c>
       <c r="M17">
-        <v>27.44940613706896</v>
-      </c>
-      <c r="N17" t="s">
-        <v>195</v>
+        <v>56.50023990588776</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1370,25 +1361,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>41909.58203125</v>
+        <v>43694.296875</v>
       </c>
       <c r="C18">
-        <v>42407</v>
+        <v>43779.0390625</v>
       </c>
       <c r="D18">
-        <v>41900.03515625</v>
+        <v>43600.87890625</v>
       </c>
       <c r="E18">
-        <v>42407</v>
+        <v>43696.9375</v>
       </c>
       <c r="F18">
-        <v>13561856</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>47.14306841400058</v>
+        <v>53.8274664000641</v>
       </c>
       <c r="M18">
-        <v>43.04028482195027</v>
+        <v>56.50831566753055</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1396,25 +1387,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>42380.515625</v>
+        <v>43692.66015625</v>
       </c>
       <c r="C19">
-        <v>42584.125</v>
+        <v>43931.703125</v>
       </c>
       <c r="D19">
-        <v>42282.5546875</v>
+        <v>43593.7890625</v>
       </c>
       <c r="E19">
-        <v>42364.2109375</v>
+        <v>43899.26171875</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>45.93223068643437</v>
+        <v>58.42708803454052</v>
       </c>
       <c r="M19">
-        <v>42.21078294827244</v>
+        <v>59.69444065122222</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1422,25 +1413,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>42366.015625</v>
+        <v>43893.7734375</v>
       </c>
       <c r="C20">
-        <v>42389.64453125</v>
+        <v>44149.7734375</v>
       </c>
       <c r="D20">
-        <v>42132.5390625</v>
+        <v>43867.40234375</v>
       </c>
       <c r="E20">
-        <v>42203.07421875</v>
+        <v>43941.8125</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>41.42467149671178</v>
+        <v>59.38437841492095</v>
       </c>
       <c r="M20">
-        <v>39.15073270755789</v>
+        <v>60.35227895815183</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1448,28 +1439,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>42152.09765625</v>
+        <v>43940.88671875</v>
       </c>
       <c r="C21">
-        <v>42413.1171875</v>
+        <v>43987.87890625</v>
       </c>
       <c r="D21">
-        <v>41998.25390625</v>
+        <v>43747.0859375</v>
       </c>
       <c r="E21">
-        <v>42160.77734375</v>
+        <v>43975.1171875</v>
       </c>
       <c r="F21">
-        <v>138840064</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>42514.4451171875</v>
+        <v>43626.1603515625</v>
       </c>
       <c r="L21">
-        <v>40.25801619339738</v>
+        <v>60.19153724734102</v>
       </c>
       <c r="M21">
-        <v>38.36453187071361</v>
+        <v>60.89032681012225</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1477,31 +1468,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>42166.5546875</v>
+        <v>43998.46484375</v>
       </c>
       <c r="C22">
-        <v>42646.80859375</v>
+        <v>44266.60546875</v>
       </c>
       <c r="D22">
-        <v>42155.92578125</v>
+        <v>43893.671875</v>
       </c>
       <c r="E22">
-        <v>42526.33203125</v>
+        <v>43977.83984375</v>
       </c>
       <c r="F22">
-        <v>818692096</v>
+        <v>301725696</v>
       </c>
       <c r="G22">
-        <v>42515.01116071428</v>
+        <v>43642.90699404762</v>
       </c>
       <c r="H22">
-        <v>42468.9251953125</v>
+        <v>43695.044921875</v>
       </c>
       <c r="L22">
-        <v>53.10048305994565</v>
+        <v>60.26416259785353</v>
       </c>
       <c r="M22">
-        <v>48.07045568246734</v>
+        <v>60.93699709286398</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1509,31 +1500,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>42515.015625</v>
+        <v>43961.70703125</v>
       </c>
       <c r="C23">
-        <v>42860.9375</v>
+        <v>44115.171875</v>
       </c>
       <c r="D23">
-        <v>42370.67578125</v>
+        <v>43894.15625</v>
       </c>
       <c r="E23">
-        <v>42500.8515625</v>
+        <v>44103.1484375</v>
       </c>
       <c r="F23">
-        <v>456077312</v>
+        <v>72081408</v>
       </c>
       <c r="G23">
-        <v>42513.72392451298</v>
+        <v>43684.74712527056</v>
       </c>
       <c r="H23">
-        <v>42421.9654296875</v>
+        <v>43758.332421875</v>
       </c>
       <c r="L23">
-        <v>52.22021479245854</v>
+        <v>63.69369890701198</v>
       </c>
       <c r="M23">
-        <v>47.50886413108852</v>
+        <v>63.11841345744786</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1541,31 +1532,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>42502.6796875</v>
+        <v>44104.0234375</v>
       </c>
       <c r="C24">
-        <v>42607.75</v>
+        <v>44187.40625</v>
       </c>
       <c r="D24">
-        <v>42375.9453125</v>
+        <v>43917.26171875</v>
       </c>
       <c r="E24">
-        <v>42454.75390625</v>
+        <v>44079.5546875</v>
       </c>
       <c r="F24">
-        <v>194594816</v>
+        <v>496576512</v>
       </c>
       <c r="G24">
-        <v>42508.3630137618</v>
+        <v>43720.63872183687</v>
       </c>
       <c r="H24">
-        <v>42391.934765625</v>
+        <v>43806.33359375</v>
       </c>
       <c r="L24">
-        <v>50.51582859034793</v>
+        <v>62.55016218650966</v>
       </c>
       <c r="M24">
-        <v>46.45156281746633</v>
+        <v>62.41170580506442</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1573,31 +1564,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>42446.22265625</v>
+        <v>44085.7734375</v>
       </c>
       <c r="C25">
-        <v>42700.5078125</v>
+        <v>44495.5703125</v>
       </c>
       <c r="D25">
-        <v>42433.796875</v>
+        <v>44001.26171875</v>
       </c>
       <c r="E25">
-        <v>42601.29296875</v>
+        <v>44082.82421875</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1504765952</v>
       </c>
       <c r="G25">
-        <v>42516.81119148801</v>
+        <v>43753.5646761017</v>
       </c>
       <c r="H25">
-        <v>42367.87421875</v>
+        <v>43868.55859375</v>
       </c>
       <c r="L25">
-        <v>55.68805209537656</v>
+        <v>62.6546897333719</v>
       </c>
       <c r="M25">
-        <v>50.24246216503116</v>
+        <v>62.47440824953793</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1605,31 +1596,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>42604.296875</v>
+        <v>44079.98828125</v>
       </c>
       <c r="C26">
-        <v>42642.2578125</v>
+        <v>44273.9375</v>
       </c>
       <c r="D26">
-        <v>42101.953125</v>
+        <v>43848.20703125</v>
       </c>
       <c r="E26">
-        <v>42255.12109375</v>
+        <v>44248.67578125</v>
       </c>
       <c r="F26">
-        <v>913442816</v>
+        <v>723181568</v>
       </c>
       <c r="G26">
-        <v>42493.02118260274</v>
+        <v>43798.57477656972</v>
       </c>
       <c r="H26">
-        <v>42357.5830078125</v>
+        <v>43920.38125</v>
       </c>
       <c r="L26">
-        <v>43.5818583527132</v>
+        <v>67.78583482518961</v>
       </c>
       <c r="M26">
-        <v>42.57467799348418</v>
+        <v>65.60843402747625</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1637,31 +1628,31 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>42280.234375</v>
+        <v>44262.1171875</v>
       </c>
       <c r="C27">
-        <v>42718.7109375</v>
+        <v>44283.25</v>
       </c>
       <c r="D27">
-        <v>42270.7578125</v>
+        <v>43662.23046875</v>
       </c>
       <c r="E27">
-        <v>42320.73046875</v>
+        <v>43934.7109375</v>
       </c>
       <c r="F27">
-        <v>535186432</v>
+        <v>1239109632</v>
       </c>
       <c r="G27">
-        <v>42477.3583904343</v>
+        <v>43810.95079119974</v>
       </c>
       <c r="H27">
-        <v>42340.8642578125</v>
+        <v>43910.984375</v>
       </c>
       <c r="L27">
-        <v>46.08112755321389</v>
+        <v>52.44097414977076</v>
       </c>
       <c r="M27">
-        <v>44.30943787954512</v>
+        <v>56.06296610494081</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1669,31 +1660,31 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>42325.04296875</v>
+        <v>43948.70703125</v>
       </c>
       <c r="C28">
-        <v>42506.7265625</v>
+        <v>43987.6015625</v>
       </c>
       <c r="D28">
-        <v>42214.9765625</v>
+        <v>43244.08203125</v>
       </c>
       <c r="E28">
-        <v>42466.46875</v>
+        <v>43547.26171875</v>
       </c>
       <c r="F28">
-        <v>152950784</v>
+        <v>1946566656</v>
       </c>
       <c r="G28">
-        <v>42476.36842312209</v>
+        <v>43786.97905734067</v>
       </c>
       <c r="H28">
-        <v>42332.66171875</v>
+        <v>43887.459765625</v>
       </c>
       <c r="L28">
-        <v>51.45513009088798</v>
+        <v>39.90105644471405</v>
       </c>
       <c r="M28">
-        <v>48.06269057917439</v>
+        <v>46.97927577528402</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1701,31 +1692,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>42475.9140625</v>
+        <v>43541.4765625</v>
       </c>
       <c r="C29">
-        <v>42759.21875</v>
+        <v>44285.15234375</v>
       </c>
       <c r="D29">
-        <v>42464.80859375</v>
+        <v>43456.53515625</v>
       </c>
       <c r="E29">
-        <v>42687.30859375</v>
+        <v>44008.6484375</v>
       </c>
       <c r="F29">
-        <v>252281856</v>
+        <v>2682630144</v>
       </c>
       <c r="G29">
-        <v>42495.54480227009</v>
+        <v>43807.13081917334</v>
       </c>
       <c r="H29">
-        <v>42330.548046875</v>
+        <v>43877.8564453125</v>
       </c>
       <c r="L29">
-        <v>58.50538910117164</v>
+        <v>54.48261792785647</v>
       </c>
       <c r="M29">
-        <v>53.20879831507246</v>
+        <v>56.1009812400086</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1733,31 +1724,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>42687.9140625</v>
+        <v>43986.70703125</v>
       </c>
       <c r="C30">
-        <v>42831.00390625</v>
+        <v>44651.7890625</v>
       </c>
       <c r="D30">
-        <v>42594.3046875</v>
+        <v>43723.4140625</v>
       </c>
       <c r="E30">
-        <v>42780.91796875</v>
+        <v>44617.80859375</v>
       </c>
       <c r="F30">
-        <v>38680576</v>
+        <v>1945055232</v>
       </c>
       <c r="G30">
-        <v>42521.48781740462</v>
+        <v>43880.82879868031</v>
       </c>
       <c r="H30">
-        <v>42353.551171875</v>
+        <v>43933.4306640625</v>
       </c>
       <c r="L30">
-        <v>61.19299910044197</v>
+        <v>66.54059251859252</v>
       </c>
       <c r="M30">
-        <v>55.23358082760759</v>
+        <v>64.72881109635435</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1765,34 +1756,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>42787.1796875</v>
+        <v>44635.58984375</v>
       </c>
       <c r="C31">
-        <v>43544.48046875</v>
+        <v>45207.4453125</v>
       </c>
       <c r="D31">
-        <v>42686.40625</v>
+        <v>44535.34765625</v>
       </c>
       <c r="E31">
-        <v>43529.83984375</v>
+        <v>45048.8125</v>
       </c>
       <c r="F31">
-        <v>1362879488</v>
+        <v>5693915136</v>
       </c>
       <c r="G31">
-        <v>42613.15618343603</v>
+        <v>43987.00913516391</v>
       </c>
       <c r="H31">
-        <v>42384.0033203125</v>
+        <v>43994.7708984375</v>
       </c>
       <c r="I31">
-        <v>42547.083984375</v>
+        <v>43805.74973958333</v>
       </c>
       <c r="L31">
-        <v>75.48464881994974</v>
+        <v>72.36729373176151</v>
       </c>
       <c r="M31">
-        <v>67.39124726599066</v>
+        <v>69.32286380675453</v>
       </c>
       <c r="O31" t="s">
         <v>195</v>
@@ -1803,34 +1794,34 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>43532.08203125</v>
+        <v>45039.5625</v>
       </c>
       <c r="C32">
-        <v>44175.4375</v>
+        <v>47208.70703125</v>
       </c>
       <c r="D32">
-        <v>43419.23828125</v>
+        <v>44867.85546875</v>
       </c>
       <c r="E32">
-        <v>44150.7109375</v>
+        <v>47027.77734375</v>
       </c>
       <c r="F32">
-        <v>2178131968</v>
+        <v>9183713280</v>
       </c>
       <c r="G32">
-        <v>42752.93388835093</v>
+        <v>44263.44260867174</v>
       </c>
       <c r="H32">
-        <v>42474.3556640625</v>
+        <v>44156.5115234375</v>
       </c>
       <c r="I32">
-        <v>42570.88333333333</v>
+        <v>43953.33736979167</v>
       </c>
       <c r="L32">
-        <v>81.75222527684568</v>
+        <v>85.45284406016783</v>
       </c>
       <c r="M32">
-        <v>73.75477304234487</v>
+        <v>81.34047274501404</v>
       </c>
       <c r="O32" t="s">
         <v>195</v>
@@ -1841,34 +1832,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>44187.140625</v>
+        <v>47022.015625</v>
       </c>
       <c r="C33">
-        <v>45474.234375</v>
+        <v>47218</v>
       </c>
       <c r="D33">
-        <v>44176.94921875</v>
+        <v>46707.2734375</v>
       </c>
       <c r="E33">
-        <v>45421.73046875</v>
+        <v>46962.42578125</v>
       </c>
       <c r="F33">
-        <v>7228592128</v>
+        <v>2397986816</v>
       </c>
       <c r="G33">
-        <v>42995.5517592963</v>
+        <v>44508.80471526975</v>
       </c>
       <c r="H33">
-        <v>42639.225390625</v>
+        <v>44330.8896484375</v>
       </c>
       <c r="I33">
-        <v>42636.939453125</v>
+        <v>44090.83828125</v>
       </c>
       <c r="L33">
-        <v>88.51471486300026</v>
+        <v>83.97546677585655</v>
       </c>
       <c r="M33">
-        <v>81.64962550949751</v>
+        <v>80.22282794844506</v>
       </c>
       <c r="O33" t="s">
         <v>195</v>
@@ -1879,34 +1870,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>45426.203125</v>
+        <v>46987.640625</v>
       </c>
       <c r="C34">
-        <v>45556.8828125</v>
+        <v>47156.859375</v>
       </c>
       <c r="D34">
-        <v>45170.265625</v>
+        <v>46322.8828125</v>
       </c>
       <c r="E34">
-        <v>45499.88671875</v>
+        <v>46963.99609375</v>
       </c>
       <c r="F34">
-        <v>2964887552</v>
+        <v>1375551488</v>
       </c>
       <c r="G34">
-        <v>43223.2185737921</v>
+        <v>44732.00393149523</v>
       </c>
       <c r="H34">
-        <v>42809.2013671875</v>
+        <v>44497.8884765625</v>
       </c>
       <c r="I34">
-        <v>42718.4234375</v>
+        <v>44218.987109375</v>
       </c>
       <c r="L34">
-        <v>88.80179885353751</v>
+        <v>83.98295243409777</v>
       </c>
       <c r="M34">
-        <v>82.00802606308591</v>
+        <v>80.22985740426259</v>
       </c>
       <c r="O34" t="s">
         <v>195</v>
@@ -1917,34 +1908,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>45502.23046875</v>
+        <v>46962.59375</v>
       </c>
       <c r="C35">
-        <v>45899.70703125</v>
+        <v>46962.59375</v>
       </c>
       <c r="D35">
-        <v>45270.51953125</v>
+        <v>46630.52734375</v>
       </c>
       <c r="E35">
-        <v>45443.24609375</v>
+        <v>46857.53515625</v>
       </c>
       <c r="F35">
-        <v>4033159168</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>43425.03925742464</v>
+        <v>44925.23404283657</v>
       </c>
       <c r="H35">
-        <v>42981.812109375</v>
+        <v>44632.7271484375</v>
       </c>
       <c r="I35">
-        <v>42797.11484375</v>
+        <v>44352.96080729167</v>
       </c>
       <c r="L35">
-        <v>87.02824546343024</v>
+        <v>81.09368100595992</v>
       </c>
       <c r="M35">
-        <v>80.77673970632715</v>
+        <v>78.20051190910216</v>
       </c>
       <c r="O35" t="s">
         <v>195</v>
@@ -1955,34 +1946,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>45461.49609375</v>
+        <v>46851.48828125</v>
       </c>
       <c r="C36">
-        <v>45809.12109375</v>
+        <v>46883.4765625</v>
       </c>
       <c r="D36">
-        <v>44890.9375</v>
+        <v>46439.1796875</v>
       </c>
       <c r="E36">
-        <v>45201.42578125</v>
+        <v>46637.25</v>
       </c>
       <c r="F36">
-        <v>5221629952</v>
+        <v>37990400</v>
       </c>
       <c r="G36">
-        <v>43586.52894140876</v>
+        <v>45080.87185712416</v>
       </c>
       <c r="H36">
-        <v>43143.9384765625</v>
+        <v>44765.3912109375</v>
       </c>
       <c r="I36">
-        <v>42888.46419270834</v>
+        <v>44467.12838541667</v>
       </c>
       <c r="L36">
-        <v>79.41064019879727</v>
+        <v>75.08091592406646</v>
       </c>
       <c r="M36">
-        <v>75.56061891598378</v>
+        <v>74.02801788545339</v>
       </c>
       <c r="O36" t="s">
         <v>195</v>
@@ -1993,34 +1984,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>45221.66015625</v>
+        <v>46650.46875</v>
       </c>
       <c r="C37">
-        <v>45391.9375</v>
+        <v>47018.25</v>
       </c>
       <c r="D37">
-        <v>44858.6015625</v>
+        <v>45794.90234375</v>
       </c>
       <c r="E37">
-        <v>45065.26171875</v>
+        <v>46886.4296875</v>
       </c>
       <c r="F37">
-        <v>2012741632</v>
+        <v>1406779392</v>
       </c>
       <c r="G37">
-        <v>43720.95919389433</v>
+        <v>45245.01347806741</v>
       </c>
       <c r="H37">
-        <v>43302.0470703125</v>
+        <v>44924.89140625</v>
       </c>
       <c r="I37">
-        <v>42968.802734375</v>
+        <v>44559.25442708333</v>
       </c>
       <c r="L37">
-        <v>75.23884844947131</v>
+        <v>77.22944286823844</v>
       </c>
       <c r="M37">
-        <v>72.71334121869968</v>
+        <v>75.61311043814415</v>
       </c>
       <c r="O37" t="s">
         <v>195</v>
@@ -2031,34 +2022,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>45056.00390625</v>
+        <v>46885.10546875</v>
       </c>
       <c r="C38">
-        <v>45268.91015625</v>
+        <v>46981.74609375</v>
       </c>
       <c r="D38">
-        <v>44703.5</v>
+        <v>46538.25</v>
       </c>
       <c r="E38">
-        <v>44951.13671875</v>
+        <v>46885.92578125</v>
       </c>
       <c r="F38">
-        <v>826650624</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>43832.79351433575</v>
+        <v>45394.18732381128</v>
       </c>
       <c r="H38">
-        <v>43429.25390625</v>
+        <v>45084.3408203125</v>
       </c>
       <c r="I38">
-        <v>43046.156640625</v>
+        <v>44654.86015625</v>
       </c>
       <c r="L38">
-        <v>71.68777357948026</v>
+        <v>77.21429693350535</v>
       </c>
       <c r="M38">
-        <v>70.32153689206076</v>
+        <v>75.60306171906025</v>
       </c>
       <c r="O38" t="s">
         <v>195</v>
@@ -2069,37 +2060,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>44961.6015625</v>
+        <v>46890.671875</v>
       </c>
       <c r="C39">
-        <v>45406.11328125</v>
+        <v>47893.69921875</v>
       </c>
       <c r="D39">
-        <v>44892.390625</v>
+        <v>45244.71484375</v>
       </c>
       <c r="E39">
-        <v>45264.6171875</v>
+        <v>46112.94140625</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>9517279232</v>
       </c>
       <c r="G39">
-        <v>43962.95930280522</v>
+        <v>45459.52860403298</v>
       </c>
       <c r="H39">
-        <v>43574.27421875</v>
+        <v>45195.0248046875</v>
       </c>
       <c r="I39">
-        <v>43130.6578125</v>
+        <v>44718.60104166667</v>
       </c>
       <c r="L39">
-        <v>75.29145999536779</v>
+        <v>57.68960341942387</v>
       </c>
       <c r="M39">
-        <v>72.95326363745723</v>
-      </c>
-      <c r="O39" t="s">
-        <v>195</v>
+        <v>61.99295337825657</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2107,34 +2095,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>45280.33984375</v>
+        <v>46121.5390625</v>
       </c>
       <c r="C40">
-        <v>45394.4921875</v>
+        <v>46223.12109375</v>
       </c>
       <c r="D40">
-        <v>45000.59375</v>
+        <v>45641.05859375</v>
       </c>
       <c r="E40">
-        <v>45061.01171875</v>
+        <v>46133.37109375</v>
       </c>
       <c r="F40">
-        <v>12666880</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>44062.78224970929</v>
+        <v>45520.78701218907</v>
       </c>
       <c r="H40">
-        <v>43717.17109375</v>
+        <v>45304.602734375</v>
       </c>
       <c r="I40">
-        <v>43221.99635416667</v>
+        <v>44806.16927083334</v>
       </c>
       <c r="L40">
-        <v>68.88485170491624</v>
+        <v>58.00533942483329</v>
       </c>
       <c r="M40">
-        <v>68.6926394785154</v>
+        <v>62.18670369815045</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2142,34 +2130,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>45053.96875</v>
+        <v>46132.4453125</v>
       </c>
       <c r="C41">
-        <v>45503.2421875</v>
+        <v>46196.265625</v>
       </c>
       <c r="D41">
-        <v>43648.328125</v>
+        <v>45792.07421875</v>
       </c>
       <c r="E41">
-        <v>43697.19921875</v>
+        <v>45792.07421875</v>
       </c>
       <c r="F41">
-        <v>2232494080</v>
+        <v>83529728</v>
       </c>
       <c r="G41">
-        <v>44029.54742871299</v>
+        <v>45545.44948551279</v>
       </c>
       <c r="H41">
-        <v>43793.9921875</v>
+        <v>45395.4505859375</v>
       </c>
       <c r="I41">
-        <v>43247.87643229167</v>
+        <v>44871.83815104167</v>
       </c>
       <c r="L41">
-        <v>41.97199438099395</v>
+        <v>50.87076037954383</v>
       </c>
       <c r="M41">
-        <v>48.33128206935304</v>
+        <v>56.9624722820536</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2177,34 +2165,34 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>43706.046875</v>
+        <v>45796.61328125</v>
       </c>
       <c r="C42">
-        <v>43706.046875</v>
+        <v>45862.83984375</v>
       </c>
       <c r="D42">
-        <v>40813.53515625</v>
+        <v>45263.34375</v>
       </c>
       <c r="E42">
-        <v>42995.14453125</v>
+        <v>45470.6875</v>
       </c>
       <c r="F42">
-        <v>11284805632</v>
+        <v>963485696</v>
       </c>
       <c r="G42">
-        <v>43935.51080167091</v>
+        <v>45538.65294137526</v>
       </c>
       <c r="H42">
-        <v>43817.4328125</v>
+        <v>45470.09296875</v>
       </c>
       <c r="I42">
-        <v>43269.59244791666</v>
+        <v>44927.76223958333</v>
       </c>
       <c r="L42">
-        <v>34.22768918146527</v>
+        <v>45.0063744035053</v>
       </c>
       <c r="M42">
-        <v>41.51021302866682</v>
+        <v>52.49062550192996</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2212,34 +2200,34 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>43009.13671875</v>
+        <v>45526.6484375</v>
       </c>
       <c r="C43">
-        <v>43475.546875</v>
+        <v>45635.15234375</v>
       </c>
       <c r="D43">
-        <v>42221.5546875</v>
+        <v>44483.15234375</v>
       </c>
       <c r="E43">
-        <v>42600.1484375</v>
+        <v>45468.13671875</v>
       </c>
       <c r="F43">
-        <v>3808526336</v>
+        <v>1107013632</v>
       </c>
       <c r="G43">
-        <v>43814.11422310991</v>
+        <v>45532.24237568205</v>
       </c>
       <c r="H43">
-        <v>43822.39765625</v>
+        <v>45538.3423828125</v>
       </c>
       <c r="I43">
-        <v>43285.45286458333</v>
+        <v>44994.2046875</v>
       </c>
       <c r="L43">
-        <v>30.64833909369565</v>
+        <v>44.9600958944505</v>
       </c>
       <c r="M43">
-        <v>38.24019068879111</v>
+        <v>52.45542746126655</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2247,34 +2235,34 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>42622.37109375</v>
+        <v>45554.265625</v>
       </c>
       <c r="C44">
-        <v>42969.5</v>
+        <v>46686.44140625</v>
       </c>
       <c r="D44">
-        <v>42581.83984375</v>
+        <v>45245.921875</v>
       </c>
       <c r="E44">
-        <v>42837.3984375</v>
+        <v>46492.0546875</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>5489537024</v>
       </c>
       <c r="G44">
-        <v>43725.32187896356</v>
+        <v>45619.49804039278</v>
       </c>
       <c r="H44">
-        <v>43841.5298828125</v>
+        <v>45658.9673828125</v>
       </c>
       <c r="I44">
-        <v>43310.02057291667</v>
+        <v>45089.805859375</v>
       </c>
       <c r="L44">
-        <v>35.22550423650743</v>
+        <v>62.41354236667949</v>
       </c>
       <c r="M44">
-        <v>41.23462882244268</v>
+        <v>63.14022032848388</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2282,34 +2270,34 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>42855.81640625</v>
+        <v>46512.2734375</v>
       </c>
       <c r="C45">
-        <v>43230.19140625</v>
+        <v>47647.22265625</v>
       </c>
       <c r="D45">
-        <v>42675.17578125</v>
+        <v>45302.1015625</v>
       </c>
       <c r="E45">
-        <v>43119.53125</v>
+        <v>46646.68359375</v>
       </c>
       <c r="F45">
-        <v>591581184</v>
+        <v>8739041280</v>
       </c>
       <c r="G45">
-        <v>43670.25000360324</v>
+        <v>45712.87854524343</v>
       </c>
       <c r="H45">
-        <v>43867.441796875</v>
+        <v>45787.1603515625</v>
       </c>
       <c r="I45">
-        <v>43347.63723958333</v>
+        <v>45172.669921875</v>
       </c>
       <c r="L45">
-        <v>40.48079485727415</v>
+        <v>64.33497055886765</v>
       </c>
       <c r="M45">
-        <v>44.67021198182914</v>
+        <v>64.4399058049287</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2317,34 +2305,34 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>43134.48828125</v>
+        <v>46656.07421875</v>
       </c>
       <c r="C46">
-        <v>43279.23828125</v>
+        <v>46745.10546875</v>
       </c>
       <c r="D46">
-        <v>42838.32421875</v>
+        <v>46290.9453125</v>
       </c>
       <c r="E46">
-        <v>42838.32421875</v>
+        <v>46484.2578125</v>
       </c>
       <c r="F46">
-        <v>483745792</v>
+        <v>928415744</v>
       </c>
       <c r="G46">
-        <v>43594.62038679839</v>
+        <v>45783.00393317585</v>
       </c>
       <c r="H46">
-        <v>43896.601953125</v>
+        <v>45898.939453125</v>
       </c>
       <c r="I46">
-        <v>43376.95143229167</v>
+        <v>45256.012890625</v>
       </c>
       <c r="L46">
-        <v>37.10518392128661</v>
+        <v>60.66989599388528</v>
       </c>
       <c r="M46">
-        <v>42.03253376482167</v>
+        <v>61.96816388611809</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2352,34 +2340,34 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>42816.296875</v>
+        <v>46514.8046875</v>
       </c>
       <c r="C47">
-        <v>43265.33203125</v>
+        <v>46514.8046875</v>
       </c>
       <c r="D47">
-        <v>42761.1015625</v>
+        <v>45678.64453125</v>
       </c>
       <c r="E47">
-        <v>43212.22265625</v>
+        <v>46089.1484375</v>
       </c>
       <c r="F47">
-        <v>282898432</v>
+        <v>1302765568</v>
       </c>
       <c r="G47">
-        <v>43559.85695674854</v>
+        <v>45810.83525175077</v>
       </c>
       <c r="H47">
-        <v>43941.1765625</v>
+        <v>46006.661328125</v>
       </c>
       <c r="I47">
-        <v>43420.58919270834</v>
+        <v>45335.7703125</v>
       </c>
       <c r="L47">
-        <v>44.0802535100104</v>
+        <v>52.48707628532792</v>
       </c>
       <c r="M47">
-        <v>46.55161880199258</v>
+        <v>56.30993743739257</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2387,1178 +2375,1175 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>43215.875</v>
+        <v>46103.4609375</v>
       </c>
       <c r="C48">
-        <v>44292.71875</v>
+        <v>47131.82421875</v>
       </c>
       <c r="D48">
-        <v>43159.66015625</v>
+        <v>46083.609375</v>
       </c>
       <c r="E48">
-        <v>44122.6484375</v>
+        <v>47086.29296875</v>
       </c>
       <c r="F48">
-        <v>257601536</v>
+        <v>1223659520</v>
       </c>
       <c r="G48">
-        <v>43611.01981863503</v>
+        <v>45926.78595329615</v>
       </c>
       <c r="H48">
-        <v>44023.985546875</v>
+        <v>46183.612890625</v>
       </c>
       <c r="I48">
-        <v>43477.77747395833</v>
+        <v>45448.748828125</v>
       </c>
       <c r="L48">
-        <v>57.10993541210878</v>
+        <v>65.64337063448725</v>
       </c>
       <c r="M48">
-        <v>55.62345609573193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>64.99651084082997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>44083.94140625</v>
+        <v>47060.5625</v>
       </c>
       <c r="C49">
-        <v>44471.59375</v>
+        <v>48969.37109375</v>
       </c>
       <c r="D49">
-        <v>43854.80859375</v>
+        <v>46531.1953125</v>
       </c>
       <c r="E49">
-        <v>44017.75390625</v>
+        <v>46691.44921875</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>8271114240</v>
       </c>
       <c r="G49">
-        <v>43647.99564478185</v>
+        <v>45996.30079561014</v>
       </c>
       <c r="H49">
-        <v>44090.5078125</v>
+        <v>46317.7529296875</v>
       </c>
       <c r="I49">
-        <v>43532.89557291667</v>
+        <v>45541.82174479167</v>
       </c>
       <c r="L49">
-        <v>55.43569082005754</v>
+        <v>58.43533326194122</v>
       </c>
       <c r="M49">
-        <v>54.47619971441486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>59.91650577911663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>44023.69140625</v>
+        <v>46734.1640625</v>
       </c>
       <c r="C50">
-        <v>44770.0234375</v>
+        <v>46883.109375</v>
       </c>
       <c r="D50">
-        <v>43973.2734375</v>
+        <v>45735.16796875</v>
       </c>
       <c r="E50">
-        <v>44200.71484375</v>
+        <v>46704.07421875</v>
       </c>
       <c r="F50">
-        <v>2445285376</v>
+        <v>2781630464</v>
       </c>
       <c r="G50">
-        <v>43698.24284468804</v>
+        <v>46060.6438340774</v>
       </c>
       <c r="H50">
-        <v>44161.49765625</v>
+        <v>46422.0662109375</v>
       </c>
       <c r="I50">
-        <v>43599.48359375</v>
+        <v>45633.89713541666</v>
       </c>
       <c r="L50">
-        <v>57.85985122397155</v>
+        <v>58.59886312200146</v>
       </c>
       <c r="M50">
-        <v>56.17414286260437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>60.02409362771653</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>44192.98046875</v>
+        <v>46704.06640625</v>
       </c>
       <c r="C51">
-        <v>44308.4453125</v>
+        <v>46977.81640625</v>
       </c>
       <c r="D51">
-        <v>42784.71875</v>
+        <v>46126.24609375</v>
       </c>
       <c r="E51">
-        <v>43506.32421875</v>
+        <v>46402.35546875</v>
       </c>
       <c r="F51">
-        <v>3864291328</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>43680.7956968755</v>
+        <v>46091.70852813854</v>
       </c>
       <c r="H51">
-        <v>44160.321875</v>
+        <v>46489.743359375</v>
       </c>
       <c r="I51">
-        <v>43644.33515625</v>
+        <v>45714.805078125</v>
       </c>
       <c r="L51">
-        <v>46.95430168571119</v>
+        <v>52.99332433444825</v>
       </c>
       <c r="M51">
-        <v>48.74342409864415</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>56.14555078867902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>43507.3671875</v>
+        <v>46354.79296875</v>
       </c>
       <c r="C52">
-        <v>43923.0546875</v>
+        <v>46498.13671875</v>
       </c>
       <c r="D52">
-        <v>43336.67578125</v>
+        <v>45914.953125</v>
       </c>
       <c r="E52">
-        <v>43822.0078125</v>
+        <v>46072.23828125</v>
       </c>
       <c r="F52">
-        <v>844593152</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>43693.63316193227</v>
+        <v>46089.93850569412</v>
       </c>
       <c r="H52">
-        <v>44143.88671875</v>
+        <v>46441.96640625</v>
       </c>
       <c r="I52">
-        <v>43687.52434895833</v>
+        <v>45784.618359375</v>
       </c>
       <c r="L52">
-        <v>51.6182379716282</v>
+        <v>47.41087832174674</v>
       </c>
       <c r="M52">
-        <v>51.86104884715105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>52.17325623795583</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>43818.16015625</v>
+        <v>46015.40625</v>
       </c>
       <c r="C53">
-        <v>44269.05078125</v>
+        <v>46353.0859375</v>
       </c>
       <c r="D53">
-        <v>43620.58984375</v>
+        <v>45829.69921875</v>
       </c>
       <c r="E53">
-        <v>43792.96484375</v>
+        <v>46008.625</v>
       </c>
       <c r="F53">
-        <v>1063927808</v>
+        <v>262365184</v>
       </c>
       <c r="G53">
-        <v>43702.66331482479</v>
+        <v>46082.54636881284</v>
       </c>
       <c r="H53">
-        <v>44062.4484375</v>
+        <v>46394.2763671875</v>
       </c>
       <c r="I53">
-        <v>43730.59479166667</v>
+        <v>45848.13424479167</v>
       </c>
       <c r="L53">
-        <v>51.15274524217154</v>
+        <v>46.35233849995467</v>
       </c>
       <c r="M53">
-        <v>51.55039273199191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>51.41832333615954</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>43791.71484375</v>
+        <v>46009.15234375</v>
       </c>
       <c r="C54">
-        <v>44110.15234375</v>
+        <v>46234.359375</v>
       </c>
       <c r="D54">
-        <v>43353.71875</v>
+        <v>45620.90234375</v>
       </c>
       <c r="E54">
-        <v>43474.86328125</v>
+        <v>45970.44921875</v>
       </c>
       <c r="F54">
-        <v>810258432</v>
+        <v>785772544</v>
       </c>
       <c r="G54">
-        <v>43681.95422086344</v>
+        <v>46072.35571880712</v>
       </c>
       <c r="H54">
-        <v>43961.197265625</v>
+        <v>46344.5990234375</v>
       </c>
       <c r="I54">
-        <v>43764.5984375</v>
+        <v>45911.1640625</v>
       </c>
       <c r="L54">
-        <v>46.03715742891822</v>
+        <v>45.66400976148965</v>
       </c>
       <c r="M54">
-        <v>48.14842511167213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>50.94193549175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>43552.0703125</v>
+        <v>45958.546875</v>
       </c>
       <c r="C55">
-        <v>43782.30859375</v>
+        <v>46105.3984375</v>
       </c>
       <c r="D55">
-        <v>43173.01171875</v>
+        <v>44363.59765625</v>
       </c>
       <c r="E55">
-        <v>43624.01953125</v>
+        <v>44405.25</v>
       </c>
       <c r="F55">
-        <v>231845888</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>43676.68743089859</v>
+        <v>45920.80065346102</v>
       </c>
       <c r="H55">
-        <v>43870.2359375</v>
+        <v>46221.984765625</v>
       </c>
       <c r="I55">
-        <v>43798.68932291667</v>
+        <v>45921.91158854167</v>
       </c>
       <c r="L55">
-        <v>48.74125727619374</v>
+        <v>27.10111700998722</v>
       </c>
       <c r="M55">
-        <v>49.82060857555214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>36.1525998059053</v>
+      </c>
+      <c r="N55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>43632.421875</v>
+        <v>44427.8984375</v>
       </c>
       <c r="C56">
-        <v>44353.28515625</v>
+        <v>44608.0078125</v>
       </c>
       <c r="D56">
-        <v>43632.421875</v>
+        <v>43223.53515625</v>
       </c>
       <c r="E56">
-        <v>44160.76171875</v>
+        <v>43435.46484375</v>
       </c>
       <c r="F56">
-        <v>311697408</v>
+        <v>2053689344</v>
       </c>
       <c r="G56">
-        <v>43720.69418433962</v>
+        <v>45694.86103439637</v>
       </c>
       <c r="H56">
-        <v>43818.202734375</v>
+        <v>46061.8955078125</v>
       </c>
       <c r="I56">
-        <v>43862.21067708333</v>
+        <v>45894.80455729167</v>
       </c>
       <c r="L56">
-        <v>57.38608161523111</v>
+        <v>21.11740597093984</v>
       </c>
       <c r="M56">
-        <v>55.39519413339873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>30.2857818992877</v>
+      </c>
+      <c r="N56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>44178.953125</v>
+        <v>43434.98828125</v>
       </c>
       <c r="C57">
-        <v>44227.6328125</v>
+        <v>43967.53125</v>
       </c>
       <c r="D57">
-        <v>43868.73828125</v>
+        <v>41903.76953125</v>
       </c>
       <c r="E57">
-        <v>43983.96875</v>
+        <v>42842.4765625</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>5509791744</v>
       </c>
       <c r="G57">
-        <v>43744.62823576329</v>
+        <v>45435.55335513307</v>
       </c>
       <c r="H57">
-        <v>43764.1380859375</v>
+        <v>45859.6978515625</v>
       </c>
       <c r="I57">
-        <v>43917.651953125</v>
+        <v>45858.39674479167</v>
       </c>
       <c r="L57">
-        <v>54.01072247159305</v>
+        <v>18.33295823073349</v>
       </c>
       <c r="M57">
-        <v>53.2950085551331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>27.36187103785318</v>
+      </c>
+      <c r="N57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>43982.88671875</v>
+        <v>42799.4453125</v>
       </c>
       <c r="C58">
-        <v>43988.828125</v>
+        <v>42958.73046875</v>
       </c>
       <c r="D58">
-        <v>43475.15625</v>
+        <v>42464.14453125</v>
       </c>
       <c r="E58">
-        <v>43696.42578125</v>
+        <v>42603.203125</v>
       </c>
       <c r="F58">
-        <v>68141056</v>
+        <v>1167687680</v>
       </c>
       <c r="G58">
-        <v>43740.2461944439</v>
+        <v>45178.06697057551</v>
       </c>
       <c r="H58">
-        <v>43701.4025390625</v>
+        <v>45645.56171875</v>
       </c>
       <c r="I58">
-        <v>43958.65052083333</v>
+        <v>45826.928125</v>
       </c>
       <c r="L58">
-        <v>48.76274623241058</v>
+        <v>17.29761211872907</v>
       </c>
       <c r="M58">
-        <v>49.97627839297167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>26.26018905274374</v>
+      </c>
+      <c r="N58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>43694.296875</v>
+        <v>42604.015625</v>
       </c>
       <c r="C59">
-        <v>43779.0390625</v>
+        <v>43234.078125</v>
       </c>
       <c r="D59">
-        <v>43600.87890625</v>
+        <v>42568.70703125</v>
       </c>
       <c r="E59">
-        <v>43696.9375</v>
+        <v>43112.1328125</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>442691584</v>
       </c>
       <c r="G59">
-        <v>43736.30904040355</v>
+        <v>44990.25477438683</v>
       </c>
       <c r="H59">
-        <v>43623.0185546875</v>
+        <v>45495.5212890625</v>
       </c>
       <c r="I59">
-        <v>43992.30481770833</v>
+        <v>45797.04427083334</v>
       </c>
       <c r="L59">
-        <v>48.77271162337678</v>
+        <v>27.14314540355839</v>
       </c>
       <c r="M59">
-        <v>49.98224768518293</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>32.48673959707686</v>
+      </c>
+      <c r="N59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>43692.66015625</v>
+        <v>43100.41796875</v>
       </c>
       <c r="C60">
-        <v>43931.703125</v>
+        <v>43234.66015625</v>
       </c>
       <c r="D60">
-        <v>43593.7890625</v>
+        <v>42543.91796875</v>
       </c>
       <c r="E60">
-        <v>43899.26171875</v>
+        <v>42578.95703125</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>33169408</v>
       </c>
       <c r="G60">
-        <v>43751.12292025322</v>
+        <v>44771.04588864712</v>
       </c>
       <c r="H60">
-        <v>43564.9310546875</v>
+        <v>45317.8005859375</v>
       </c>
       <c r="I60">
-        <v>44029.58294270833</v>
+        <v>45729.08255208333</v>
       </c>
       <c r="L60">
-        <v>52.85162334447285</v>
+        <v>23.80331920479103</v>
       </c>
       <c r="M60">
-        <v>52.4007588393907</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>29.6610210210731</v>
+      </c>
+      <c r="N60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>43893.7734375</v>
+        <v>42605.5390625</v>
       </c>
       <c r="C61">
-        <v>44149.7734375</v>
+        <v>43206.546875</v>
       </c>
       <c r="D61">
-        <v>43867.40234375</v>
+        <v>42517.94140625</v>
       </c>
       <c r="E61">
-        <v>43941.8125</v>
+        <v>43182.5546875</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>43768.45833659384</v>
+        <v>44626.63759763375</v>
       </c>
       <c r="H61">
-        <v>43577.16171875</v>
+        <v>45187.324609375</v>
       </c>
       <c r="I61">
-        <v>44043.31536458333</v>
+        <v>45666.87395833333</v>
       </c>
       <c r="L61">
-        <v>53.72342233252603</v>
+        <v>34.12630586527741</v>
       </c>
       <c r="M61">
-        <v>52.91638867485404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>36.40487865889228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>43940.88671875</v>
+        <v>43161.7421875</v>
       </c>
       <c r="C62">
-        <v>43987.87890625</v>
+        <v>43161.7421875</v>
       </c>
       <c r="D62">
-        <v>43747.0859375</v>
+        <v>42752.671875</v>
       </c>
       <c r="E62">
-        <v>43975.1171875</v>
+        <v>42810.12109375</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>43787.24550485803</v>
+        <v>44461.49973364432</v>
       </c>
       <c r="H62">
-        <v>43626.1603515625</v>
+        <v>45054.2962890625</v>
       </c>
       <c r="I62">
-        <v>44037.46223958334</v>
+        <v>45526.28541666667</v>
       </c>
       <c r="L62">
-        <v>54.46481295450431</v>
+        <v>31.19285841881279</v>
       </c>
       <c r="M62">
-        <v>53.34242116061825</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>34.22448343490402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>43998.46484375</v>
+        <v>42787.94921875</v>
       </c>
       <c r="C63">
-        <v>44266.60546875</v>
+        <v>43014.17578125</v>
       </c>
       <c r="D63">
-        <v>43893.671875</v>
+        <v>42718.98828125</v>
       </c>
       <c r="E63">
-        <v>43977.83984375</v>
+        <v>42835.70703125</v>
       </c>
       <c r="F63">
-        <v>301725696</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>43804.57226293912</v>
+        <v>44313.70039706301</v>
       </c>
       <c r="H63">
-        <v>43695.044921875</v>
+        <v>44922.6748046875</v>
       </c>
       <c r="I63">
-        <v>43989.33255208333</v>
+        <v>45388.728125</v>
       </c>
       <c r="L63">
-        <v>54.53180658684103</v>
+        <v>31.64695881903861</v>
       </c>
       <c r="M63">
-        <v>53.37955941245257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>34.51465637845265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>43961.70703125</v>
+        <v>42842.26171875</v>
       </c>
       <c r="C64">
-        <v>44115.171875</v>
+        <v>42874.4296875</v>
       </c>
       <c r="D64">
-        <v>43894.15625</v>
+        <v>42654.546875</v>
       </c>
       <c r="E64">
-        <v>44103.1484375</v>
+        <v>42667.25</v>
       </c>
       <c r="F64">
-        <v>72081408</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>43831.71555153556</v>
+        <v>44164.0230882391</v>
       </c>
       <c r="H64">
-        <v>43758.332421875</v>
+        <v>44731.4345703125</v>
       </c>
       <c r="I64">
-        <v>43942.774609375</v>
+        <v>45245.50325520834</v>
       </c>
       <c r="L64">
-        <v>57.75028603047092</v>
+        <v>30.17205535874679</v>
       </c>
       <c r="M64">
-        <v>55.14903186976012</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>33.46778784386414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>44104.0234375</v>
+        <v>42670.75390625</v>
       </c>
       <c r="C65">
-        <v>44187.40625</v>
+        <v>43048.32421875</v>
       </c>
       <c r="D65">
-        <v>43917.26171875</v>
+        <v>42561.640625</v>
       </c>
       <c r="E65">
-        <v>44079.5546875</v>
+        <v>42992.76953125</v>
       </c>
       <c r="F65">
-        <v>496576512</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>43854.24638207778</v>
+        <v>44057.54549214918</v>
       </c>
       <c r="H65">
-        <v>43806.33359375</v>
+        <v>44548.7388671875</v>
       </c>
       <c r="I65">
-        <v>43897.31822916667</v>
+        <v>45116.677734375</v>
       </c>
       <c r="L65">
-        <v>56.89718114095223</v>
+        <v>36.59582420950708</v>
       </c>
       <c r="M65">
-        <v>54.72784330855153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>37.41791617009255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>44085.7734375</v>
+        <v>43001.578125</v>
       </c>
       <c r="C66">
-        <v>44495.5703125</v>
+        <v>43065.59765625</v>
       </c>
       <c r="D66">
-        <v>44001.26171875</v>
+        <v>42790.51171875</v>
       </c>
       <c r="E66">
-        <v>44082.82421875</v>
+        <v>42812.25</v>
       </c>
       <c r="F66">
-        <v>1504765952</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>43875.02618541161</v>
+        <v>43944.33681104471</v>
       </c>
       <c r="H66">
-        <v>43868.55859375</v>
+        <v>44365.1384765625</v>
       </c>
       <c r="I66">
-        <v>43860.03151041667</v>
+        <v>44989.177734375</v>
       </c>
       <c r="L66">
-        <v>56.99621780130914</v>
+        <v>34.60947619440591</v>
       </c>
       <c r="M66">
-        <v>54.77938377610919</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>36.13659415466842</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>44079.98828125</v>
+        <v>42816.33203125</v>
       </c>
       <c r="C67">
-        <v>44273.9375</v>
+        <v>42991.58203125</v>
       </c>
       <c r="D67">
-        <v>43848.20703125</v>
+        <v>42734.93359375</v>
       </c>
       <c r="E67">
-        <v>44248.67578125</v>
+        <v>42914.34765625</v>
       </c>
       <c r="F67">
-        <v>723181568</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>43908.99433048783</v>
+        <v>43850.7014333361</v>
       </c>
       <c r="H67">
-        <v>43920.38125</v>
+        <v>44206.3984375</v>
       </c>
       <c r="I67">
-        <v>43832.81197916667</v>
+        <v>44856.775</v>
       </c>
       <c r="L67">
-        <v>61.98131877087077</v>
+        <v>36.7923933400449</v>
       </c>
       <c r="M67">
-        <v>57.42708694865258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>37.44138845379322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>44262.1171875</v>
+        <v>42916.24609375</v>
       </c>
       <c r="C68">
-        <v>44283.25</v>
+        <v>42996.0390625</v>
       </c>
       <c r="D68">
-        <v>43662.23046875</v>
+        <v>42625.859375</v>
       </c>
       <c r="E68">
-        <v>43934.7109375</v>
+        <v>42625.859375</v>
       </c>
       <c r="F68">
-        <v>1239109632</v>
+        <v>143093760</v>
       </c>
       <c r="G68">
-        <v>43911.33220385257</v>
+        <v>43739.35215530555</v>
       </c>
       <c r="H68">
-        <v>43910.984375</v>
+        <v>43983.3767578125</v>
       </c>
       <c r="I68">
-        <v>43798.93111979167</v>
+        <v>44714.77278645834</v>
       </c>
       <c r="L68">
-        <v>49.70923387695422</v>
+        <v>33.26264206061493</v>
       </c>
       <c r="M68">
-        <v>51.30324728612776</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>35.24987261544682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>43948.70703125</v>
+        <v>42638.08984375</v>
       </c>
       <c r="C69">
-        <v>43987.6015625</v>
+        <v>42713.58203125</v>
       </c>
       <c r="D69">
-        <v>43244.08203125</v>
+        <v>41724.61328125</v>
       </c>
       <c r="E69">
-        <v>43547.26171875</v>
+        <v>41812.25390625</v>
       </c>
       <c r="F69">
-        <v>1946566656</v>
+        <v>4146829312</v>
       </c>
       <c r="G69">
-        <v>43878.23488702506</v>
+        <v>43564.1614053914</v>
       </c>
       <c r="H69">
-        <v>43887.459765625</v>
+        <v>43739.4169921875</v>
       </c>
       <c r="I69">
-        <v>43741.6859375</v>
+        <v>44571.41653645833</v>
       </c>
       <c r="L69">
-        <v>38.99129087144334</v>
+        <v>25.50061812371302</v>
       </c>
       <c r="M69">
-        <v>44.93512453266116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>29.92928731953289</v>
+      </c>
+      <c r="N69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>43541.4765625</v>
+        <v>41715.06640625</v>
       </c>
       <c r="C70">
-        <v>44285.15234375</v>
+        <v>42616.390625</v>
       </c>
       <c r="D70">
-        <v>43456.53515625</v>
+        <v>41705.41796875</v>
       </c>
       <c r="E70">
-        <v>44008.6484375</v>
+        <v>42539.94140625</v>
       </c>
       <c r="F70">
-        <v>2682630144</v>
+        <v>1710551040</v>
       </c>
       <c r="G70">
-        <v>43890.09066434096</v>
+        <v>43471.05049637855</v>
       </c>
       <c r="H70">
-        <v>43877.8564453125</v>
+        <v>43531.2103515625</v>
       </c>
       <c r="I70">
-        <v>43706.60716145833</v>
+        <v>44451.635546875</v>
       </c>
       <c r="L70">
-        <v>52.66434630146997</v>
+        <v>39.66694160687329</v>
       </c>
       <c r="M70">
-        <v>52.49689592373407</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>38.82340547896422</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>43986.70703125</v>
+        <v>42552.171875</v>
       </c>
       <c r="C71">
-        <v>44651.7890625</v>
+        <v>42782.19140625</v>
       </c>
       <c r="D71">
-        <v>43723.4140625</v>
+        <v>42514.125</v>
       </c>
       <c r="E71">
-        <v>44617.80859375</v>
+        <v>42701.32421875</v>
       </c>
       <c r="F71">
-        <v>1945055232</v>
+        <v>640868352</v>
       </c>
       <c r="G71">
-        <v>43956.24683974178</v>
+        <v>43401.0753802305</v>
       </c>
       <c r="H71">
-        <v>43933.4306640625</v>
+        <v>43346.1587890625</v>
       </c>
       <c r="I71">
-        <v>43737.294140625</v>
+        <v>44348.610546875</v>
       </c>
       <c r="L71">
-        <v>64.48628629573781</v>
+        <v>42.39965723477192</v>
       </c>
       <c r="M71">
-        <v>60.25689635328995</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>40.62343037549003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>44635.58984375</v>
+        <v>42702.640625</v>
       </c>
       <c r="C72">
-        <v>45207.4453125</v>
+        <v>42748.234375</v>
       </c>
       <c r="D72">
-        <v>44535.34765625</v>
+        <v>42533.07421875</v>
       </c>
       <c r="E72">
-        <v>45048.8125</v>
+        <v>42678.52734375</v>
       </c>
       <c r="F72">
-        <v>5693915136</v>
+        <v>730304512</v>
       </c>
       <c r="G72">
-        <v>44055.57099067434</v>
+        <v>43335.38919509591</v>
       </c>
       <c r="H72">
-        <v>43994.7708984375</v>
+        <v>43176.4732421875</v>
       </c>
       <c r="I72">
-        <v>43805.74973958333</v>
+        <v>44255.53854166667</v>
       </c>
       <c r="L72">
-        <v>70.37545844043649</v>
+        <v>42.09664709170585</v>
       </c>
       <c r="M72">
-        <v>64.65623115527599</v>
-      </c>
-      <c r="O72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>40.44240771691773</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>45039.5625</v>
+        <v>42680.6640625</v>
       </c>
       <c r="C73">
-        <v>47208.70703125</v>
+        <v>42907.01953125</v>
       </c>
       <c r="D73">
-        <v>44867.85546875</v>
+        <v>42176.66796875</v>
       </c>
       <c r="E73">
-        <v>47027.77734375</v>
+        <v>42257.58203125</v>
       </c>
       <c r="F73">
-        <v>9183713280</v>
+        <v>2308460544</v>
       </c>
       <c r="G73">
-        <v>44325.77156822668</v>
+        <v>43237.40672565537</v>
       </c>
       <c r="H73">
-        <v>44156.5115234375</v>
+        <v>42988.92109375</v>
       </c>
       <c r="I73">
-        <v>43953.33736979167</v>
+        <v>44148.52005208333</v>
       </c>
       <c r="L73">
-        <v>84.04348137192557</v>
+        <v>36.6549939567412</v>
       </c>
       <c r="M73">
-        <v>77.15854796474245</v>
-      </c>
-      <c r="O73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>37.15044151547181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>47022.015625</v>
+        <v>42254.97265625</v>
       </c>
       <c r="C74">
-        <v>47218</v>
+        <v>43319.72265625</v>
       </c>
       <c r="D74">
-        <v>46707.2734375</v>
+        <v>42254.97265625</v>
       </c>
       <c r="E74">
-        <v>46962.42578125</v>
+        <v>42958.9453125</v>
       </c>
       <c r="F74">
-        <v>2397986816</v>
+        <v>2785239040</v>
       </c>
       <c r="G74">
-        <v>44565.46740577425</v>
+        <v>43212.09205173215</v>
       </c>
       <c r="H74">
-        <v>44330.8896484375</v>
+        <v>42838.3458984375</v>
       </c>
       <c r="I74">
-        <v>44090.83828125</v>
+        <v>44030.74973958333</v>
       </c>
       <c r="L74">
-        <v>82.62720650055844</v>
+        <v>49.00989165138117</v>
       </c>
       <c r="M74">
-        <v>76.19995347605001</v>
-      </c>
-      <c r="O74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>45.1601490923106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>46987.640625</v>
+        <v>42953.734375</v>
       </c>
       <c r="C75">
-        <v>47156.859375</v>
+        <v>43077.4921875</v>
       </c>
       <c r="D75">
-        <v>46322.8828125</v>
+        <v>42386.90625</v>
       </c>
       <c r="E75">
-        <v>46963.99609375</v>
+        <v>42533.6796875</v>
       </c>
       <c r="F75">
-        <v>1375551488</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>44783.51546831751</v>
+        <v>43150.41820043831</v>
       </c>
       <c r="H75">
-        <v>44497.8884765625</v>
+        <v>42744.7673828125</v>
       </c>
       <c r="I75">
-        <v>44218.987109375</v>
+        <v>43893.649609375</v>
       </c>
       <c r="L75">
-        <v>82.63511689271822</v>
+        <v>43.25505013777765</v>
       </c>
       <c r="M75">
-        <v>76.20760246238066</v>
-      </c>
-      <c r="O75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>41.69073661791111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>46962.59375</v>
+        <v>42499.3359375</v>
       </c>
       <c r="C76">
-        <v>46962.59375</v>
+        <v>42893.484375</v>
       </c>
       <c r="D76">
-        <v>46630.52734375</v>
+        <v>42466.2578125</v>
       </c>
       <c r="E76">
-        <v>46857.53515625</v>
+        <v>42893.484375</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>44972.062712675</v>
+        <v>43127.06057994391</v>
       </c>
       <c r="H76">
-        <v>44632.7271484375</v>
+        <v>42717.668359375</v>
       </c>
       <c r="I76">
-        <v>44352.96080729167</v>
+        <v>43773.95716145833</v>
       </c>
       <c r="L76">
-        <v>79.86164771302093</v>
+        <v>48.95961623630001</v>
       </c>
       <c r="M76">
-        <v>74.46041142894153</v>
-      </c>
-      <c r="O76" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>45.50531001728648</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>46851.48828125</v>
+        <v>42887.0625</v>
       </c>
       <c r="C77">
-        <v>46883.4765625</v>
+        <v>42903.5859375</v>
       </c>
       <c r="D77">
-        <v>46439.1796875</v>
+        <v>42588.81640625</v>
       </c>
       <c r="E77">
-        <v>46637.25</v>
+        <v>42717.609375</v>
       </c>
       <c r="F77">
-        <v>37990400</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>45123.44337515909</v>
+        <v>43089.83774313083</v>
       </c>
       <c r="H77">
-        <v>44765.3912109375</v>
+        <v>42711.425</v>
       </c>
       <c r="I77">
-        <v>44467.12838541667</v>
+        <v>43661.57252604167</v>
       </c>
       <c r="L77">
-        <v>74.07437233236041</v>
+        <v>46.39480968979753</v>
       </c>
       <c r="M77">
-        <v>70.84125011775313</v>
-      </c>
-      <c r="O77" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>43.99039503847181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>46650.46875</v>
+        <v>42742.01953125</v>
       </c>
       <c r="C78">
-        <v>47018.25</v>
+        <v>43094.55078125</v>
       </c>
       <c r="D78">
-        <v>45794.90234375</v>
+        <v>42691.921875</v>
       </c>
       <c r="E78">
-        <v>46886.4296875</v>
+        <v>42845.51171875</v>
       </c>
       <c r="F78">
-        <v>1406779392</v>
+        <v>415578112</v>
       </c>
       <c r="G78">
-        <v>45283.71485809918</v>
+        <v>43067.62628636893</v>
       </c>
       <c r="H78">
-        <v>44924.89140625</v>
+        <v>42723.5404296875</v>
       </c>
       <c r="I78">
-        <v>44559.25442708333</v>
+        <v>43520.21315104167</v>
       </c>
       <c r="L78">
-        <v>76.26332186373322</v>
+        <v>48.59786150008318</v>
       </c>
       <c r="M78">
-        <v>72.47122701955239</v>
-      </c>
-      <c r="O78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>45.41360722497911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>46885.10546875</v>
+        <v>42858.9140625</v>
       </c>
       <c r="C79">
-        <v>46981.74609375</v>
+        <v>43294.61328125</v>
       </c>
       <c r="D79">
-        <v>46538.25</v>
+        <v>42085.99609375</v>
       </c>
       <c r="E79">
-        <v>46885.92578125</v>
+        <v>43258.41796875</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2860470272</v>
       </c>
       <c r="G79">
-        <v>45429.37039656743</v>
+        <v>43084.97098476721</v>
       </c>
       <c r="H79">
-        <v>45084.3408203125</v>
+        <v>42730.8546875</v>
       </c>
       <c r="I79">
-        <v>44654.86015625</v>
+        <v>43405.77877604167</v>
       </c>
       <c r="L79">
-        <v>76.24867554760202</v>
+        <v>55.27370662895301</v>
       </c>
       <c r="M79">
-        <v>72.46240542511784</v>
-      </c>
-      <c r="O79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>49.8444259923703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>46890.671875</v>
+        <v>43237.26953125</v>
       </c>
       <c r="C80">
-        <v>47893.69921875</v>
+        <v>43380.16796875</v>
       </c>
       <c r="D80">
-        <v>45244.71484375</v>
+        <v>42857.625</v>
       </c>
       <c r="E80">
-        <v>46112.94140625</v>
+        <v>43166.3125</v>
       </c>
       <c r="F80">
-        <v>9517279232</v>
+        <v>1066360832</v>
       </c>
       <c r="G80">
-        <v>45491.51321562949</v>
+        <v>43092.3656679702</v>
       </c>
       <c r="H80">
-        <v>45195.0248046875</v>
+        <v>42760.2224609375</v>
       </c>
       <c r="I80">
-        <v>44718.60104166667</v>
+        <v>43287.85338541667</v>
       </c>
       <c r="L80">
-        <v>57.26844218138998</v>
+        <v>53.5290845487832</v>
       </c>
       <c r="M80">
-        <v>60.33061546858679</v>
+        <v>48.89108576999691</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3566,34 +3551,34 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>46121.5390625</v>
+        <v>43157.125</v>
       </c>
       <c r="C81">
-        <v>46223.12109375</v>
+        <v>43566.2734375</v>
       </c>
       <c r="D81">
-        <v>45641.05859375</v>
+        <v>43081.828125</v>
       </c>
       <c r="E81">
-        <v>46133.37109375</v>
+        <v>43138.171875</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1437816832</v>
       </c>
       <c r="G81">
-        <v>45549.86393182226</v>
+        <v>43096.52986860927</v>
       </c>
       <c r="H81">
-        <v>45304.602734375</v>
+        <v>42758.0033203125</v>
       </c>
       <c r="I81">
-        <v>44806.16927083334</v>
+        <v>43179.047265625</v>
       </c>
       <c r="L81">
-        <v>57.58239107584158</v>
+        <v>52.95458827603203</v>
       </c>
       <c r="M81">
-        <v>60.51875440022675</v>
+        <v>48.58533362532257</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3601,34 +3586,34 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>46132.4453125</v>
+        <v>43132.1015625</v>
       </c>
       <c r="C82">
-        <v>46196.265625</v>
+        <v>43189.890625</v>
       </c>
       <c r="D82">
-        <v>45792.07421875</v>
+        <v>42848.70703125</v>
       </c>
       <c r="E82">
-        <v>45792.07421875</v>
+        <v>42848.70703125</v>
       </c>
       <c r="F82">
-        <v>83529728</v>
+        <v>156950528</v>
       </c>
       <c r="G82">
-        <v>45571.88304881569</v>
+        <v>43074.00051975843</v>
       </c>
       <c r="H82">
-        <v>45395.4505859375</v>
+        <v>42759.9326171875</v>
       </c>
       <c r="I82">
-        <v>44871.83815104167</v>
+        <v>43071.59622395833</v>
       </c>
       <c r="L82">
-        <v>50.59604757070436</v>
+        <v>47.10435637167158</v>
       </c>
       <c r="M82">
-        <v>55.76092917347239</v>
+        <v>45.43757281782415</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3636,34 +3621,34 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>45796.61328125</v>
+        <v>42850.9296875</v>
       </c>
       <c r="C83">
-        <v>45862.83984375</v>
+        <v>42895.58203125</v>
       </c>
       <c r="D83">
-        <v>45263.34375</v>
+        <v>42620.265625</v>
       </c>
       <c r="E83">
-        <v>45470.6875</v>
+        <v>42657.12890625</v>
       </c>
       <c r="F83">
-        <v>963485696</v>
+        <v>250095616</v>
       </c>
       <c r="G83">
-        <v>45562.68345346881</v>
+        <v>43036.10310034857</v>
       </c>
       <c r="H83">
-        <v>45470.09296875</v>
+        <v>42751.0037109375</v>
       </c>
       <c r="I83">
-        <v>44927.76223958333</v>
+        <v>42959.8796875</v>
       </c>
       <c r="L83">
-        <v>44.83354118255026</v>
+        <v>43.52419311858259</v>
       </c>
       <c r="M83">
-        <v>51.6436024555253</v>
+        <v>43.43198805986642</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -3671,34 +3656,34 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>45526.6484375</v>
+        <v>42642.421875</v>
       </c>
       <c r="C84">
-        <v>45635.15234375</v>
+        <v>42825.80078125</v>
       </c>
       <c r="D84">
-        <v>44483.15234375</v>
+        <v>42553.41796875</v>
       </c>
       <c r="E84">
-        <v>45468.13671875</v>
+        <v>42655.79296875</v>
       </c>
       <c r="F84">
-        <v>1107013632</v>
+        <v>363143168</v>
       </c>
       <c r="G84">
-        <v>45554.0882957671</v>
+        <v>43001.52945202143</v>
       </c>
       <c r="H84">
-        <v>45538.3423828125</v>
+        <v>42750.430859375</v>
       </c>
       <c r="I84">
-        <v>44994.2046875</v>
+        <v>42849.39114583333</v>
       </c>
       <c r="L84">
-        <v>44.78799476123987</v>
+        <v>43.49825691804779</v>
       </c>
       <c r="M84">
-        <v>51.61102945068087</v>
+        <v>43.41759621141338</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3706,34 +3691,34 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>45554.265625</v>
+        <v>42657.89453125</v>
       </c>
       <c r="C85">
-        <v>46686.44140625</v>
+        <v>42880.05078125</v>
       </c>
       <c r="D85">
-        <v>45245.921875</v>
+        <v>42412.78125</v>
       </c>
       <c r="E85">
-        <v>46492.0546875</v>
+        <v>42520.1484375</v>
       </c>
       <c r="F85">
-        <v>5489537024</v>
+        <v>563935232</v>
       </c>
       <c r="G85">
-        <v>45639.35796774282</v>
+        <v>42957.76754161039</v>
       </c>
       <c r="H85">
-        <v>45658.9673828125</v>
+        <v>42726.7998046875</v>
       </c>
       <c r="I85">
-        <v>45089.805859375</v>
+        <v>42786.55442708333</v>
       </c>
       <c r="L85">
-        <v>62.15169067434851</v>
+        <v>40.72610411758141</v>
       </c>
       <c r="M85">
-        <v>61.97801911641525</v>
+        <v>41.89944183041995</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -3741,34 +3726,34 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>46512.2734375</v>
+        <v>42460.83984375</v>
       </c>
       <c r="C86">
-        <v>47647.22265625</v>
+        <v>42703.4765625</v>
       </c>
       <c r="D86">
-        <v>45302.1015625</v>
+        <v>42189.30859375</v>
       </c>
       <c r="E86">
-        <v>46646.68359375</v>
+        <v>42597.171875</v>
       </c>
       <c r="F86">
-        <v>8739041280</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>45730.93302465256</v>
+        <v>42924.98611737308</v>
       </c>
       <c r="H86">
-        <v>45787.1603515625</v>
+        <v>42716.0458984375</v>
       </c>
       <c r="I86">
-        <v>45172.669921875</v>
+        <v>42758.611328125</v>
       </c>
       <c r="L86">
-        <v>64.07136438816491</v>
+        <v>43.04484120320598</v>
       </c>
       <c r="M86">
-        <v>63.258215885103</v>
+        <v>43.1157605999668</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -3776,34 +3761,34 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>46656.07421875</v>
+        <v>42587.1875</v>
       </c>
       <c r="C87">
-        <v>46745.10546875</v>
+        <v>42817.95703125</v>
       </c>
       <c r="D87">
-        <v>46290.9453125</v>
+        <v>42459.29296875</v>
       </c>
       <c r="E87">
-        <v>46484.2578125</v>
+        <v>42738.96484375</v>
       </c>
       <c r="F87">
-        <v>928415744</v>
+        <v>109846528</v>
       </c>
       <c r="G87">
-        <v>45799.41709627506</v>
+        <v>42908.07509249825</v>
       </c>
       <c r="H87">
-        <v>45898.939453125</v>
+        <v>42707.2767578125</v>
       </c>
       <c r="I87">
-        <v>45256.012890625</v>
+        <v>42755.1609375</v>
       </c>
       <c r="L87">
-        <v>60.44825453993686</v>
+        <v>47.31332055022783</v>
       </c>
       <c r="M87">
-        <v>60.93722402442257</v>
+        <v>45.38256920659276</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -3811,34 +3796,34 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>46514.8046875</v>
+        <v>42742.3125</v>
       </c>
       <c r="C88">
-        <v>46514.8046875</v>
+        <v>42745.890625</v>
       </c>
       <c r="D88">
-        <v>45678.64453125</v>
+        <v>42496.08984375</v>
       </c>
       <c r="E88">
-        <v>46089.1484375</v>
+        <v>42544.04296875</v>
       </c>
       <c r="F88">
-        <v>1302765568</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>45825.75630911368</v>
+        <v>42874.98126306658</v>
       </c>
       <c r="H88">
-        <v>46006.661328125</v>
+        <v>42703.1859375</v>
       </c>
       <c r="I88">
-        <v>45335.7703125</v>
+        <v>42753.18893229167</v>
       </c>
       <c r="L88">
-        <v>52.34745324380786</v>
+        <v>42.39909473852191</v>
       </c>
       <c r="M88">
-        <v>55.59368265889569</v>
+        <v>42.85438489816956</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -3846,34 +3831,34 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>46103.4609375</v>
+        <v>42546.1796875</v>
       </c>
       <c r="C89">
-        <v>47131.82421875</v>
+        <v>42875.8984375</v>
       </c>
       <c r="D89">
-        <v>46083.609375</v>
+        <v>42546.1796875</v>
       </c>
       <c r="E89">
-        <v>47086.29296875</v>
+        <v>42851.06640625</v>
       </c>
       <c r="F89">
-        <v>1223659520</v>
+        <v>105897984</v>
       </c>
       <c r="G89">
-        <v>45940.3505508988</v>
+        <v>42872.80718517416</v>
       </c>
       <c r="H89">
-        <v>46183.612890625</v>
+        <v>42755.1265625</v>
       </c>
       <c r="I89">
-        <v>45448.748828125</v>
+        <v>42744.48671875</v>
       </c>
       <c r="L89">
-        <v>65.48130002075966</v>
+        <v>51.35262947237322</v>
       </c>
       <c r="M89">
-        <v>64.14005149315993</v>
+        <v>47.7882112262651</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -3881,34 +3866,34 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>47060.5625</v>
+        <v>42861.48828125</v>
       </c>
       <c r="C90">
-        <v>48969.37109375</v>
+        <v>42876.34765625</v>
       </c>
       <c r="D90">
-        <v>46531.1953125</v>
+        <v>42358.01171875</v>
       </c>
       <c r="E90">
-        <v>46691.44921875</v>
+        <v>42489.90625</v>
       </c>
       <c r="F90">
-        <v>8271114240</v>
+        <v>319928320</v>
       </c>
       <c r="G90">
-        <v>46008.63224797618</v>
+        <v>42837.99800924924</v>
       </c>
       <c r="H90">
-        <v>46317.7529296875</v>
+        <v>42752.6248046875</v>
       </c>
       <c r="I90">
-        <v>45541.82174479167</v>
+        <v>42741.518359375</v>
       </c>
       <c r="L90">
-        <v>58.3207173217293</v>
+        <v>42.59135149418992</v>
       </c>
       <c r="M90">
-        <v>59.27528122516357</v>
+        <v>43.07673786821042</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -3916,34 +3901,34 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>46734.1640625</v>
+        <v>42504.69921875</v>
       </c>
       <c r="C91">
-        <v>46883.109375</v>
+        <v>42765.02734375</v>
       </c>
       <c r="D91">
-        <v>45735.16796875</v>
+        <v>42340.296875</v>
       </c>
       <c r="E91">
-        <v>46704.07421875</v>
+        <v>42602.703125</v>
       </c>
       <c r="F91">
-        <v>2781630464</v>
+        <v>76670976</v>
       </c>
       <c r="G91">
-        <v>46071.85424531925</v>
+        <v>42816.60756522659</v>
       </c>
       <c r="H91">
-        <v>46422.0662109375</v>
+        <v>42747.69375</v>
       </c>
       <c r="I91">
-        <v>45633.89713541666</v>
+        <v>42722.18997395833</v>
       </c>
       <c r="L91">
-        <v>58.48402438212531</v>
+        <v>45.83809840134698</v>
       </c>
       <c r="M91">
-        <v>59.38136504720812</v>
+        <v>44.90374386542994</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -3951,34 +3936,37 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>46704.06640625</v>
+        <v>42589.18359375</v>
       </c>
       <c r="C92">
-        <v>46977.81640625</v>
+        <v>42589.18359375</v>
       </c>
       <c r="D92">
-        <v>46126.24609375</v>
+        <v>40851.359375</v>
       </c>
       <c r="E92">
-        <v>46402.35546875</v>
+        <v>40950.9140625</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>4094134272</v>
       </c>
       <c r="G92">
-        <v>46101.89981108568</v>
+        <v>42646.99906497871</v>
       </c>
       <c r="H92">
-        <v>46489.743359375</v>
+        <v>42661.3130859375</v>
       </c>
       <c r="I92">
-        <v>45714.805078125</v>
+        <v>42660.21640625</v>
       </c>
       <c r="L92">
-        <v>52.91026637937588</v>
+        <v>23.7292752125161</v>
       </c>
       <c r="M92">
-        <v>55.65045015348997</v>
+        <v>29.81329007617208</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -3986,34 +3974,34 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>46354.79296875</v>
+        <v>40982.12890625</v>
       </c>
       <c r="C93">
-        <v>46498.13671875</v>
+        <v>41327.51171875</v>
       </c>
       <c r="D93">
-        <v>45914.953125</v>
+        <v>40631.171875</v>
       </c>
       <c r="E93">
-        <v>46072.23828125</v>
+        <v>41259.45703125</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2532898816</v>
       </c>
       <c r="G93">
-        <v>46099.20330837334</v>
+        <v>42520.85888009429</v>
       </c>
       <c r="H93">
-        <v>46441.96640625</v>
+        <v>42611.4068359375</v>
       </c>
       <c r="I93">
-        <v>45784.618359375</v>
+        <v>42607.67473958333</v>
       </c>
       <c r="L93">
-        <v>47.35511252720271</v>
+        <v>30.74839226117841</v>
       </c>
       <c r="M93">
-        <v>51.81454899596928</v>
+        <v>34.2576643820717</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4021,34 +4009,37 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>46015.40625</v>
+        <v>41278.4609375</v>
       </c>
       <c r="C94">
-        <v>46353.0859375</v>
+        <v>41325.25</v>
       </c>
       <c r="D94">
-        <v>45829.69921875</v>
+        <v>40749.3828125</v>
       </c>
       <c r="E94">
-        <v>46008.625</v>
+        <v>41015.80859375</v>
       </c>
       <c r="F94">
-        <v>262365184</v>
+        <v>1305868288</v>
       </c>
       <c r="G94">
-        <v>46090.96891670304</v>
+        <v>42384.03612679026</v>
       </c>
       <c r="H94">
-        <v>46394.2763671875</v>
+        <v>42514.25</v>
       </c>
       <c r="I94">
-        <v>45848.13424479167</v>
+        <v>42552.62669270833</v>
       </c>
       <c r="L94">
-        <v>46.30125692662372</v>
+        <v>28.42449033122798</v>
       </c>
       <c r="M94">
-        <v>51.08383642923688</v>
+        <v>32.5071438215793</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4056,34 +4047,34 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>46009.15234375</v>
+        <v>41011.7734375</v>
       </c>
       <c r="C95">
-        <v>46234.359375</v>
+        <v>41509.2421875</v>
       </c>
       <c r="D95">
-        <v>45620.90234375</v>
+        <v>41008.92578125</v>
       </c>
       <c r="E95">
-        <v>45970.44921875</v>
+        <v>41231.6171875</v>
       </c>
       <c r="F95">
-        <v>785772544</v>
+        <v>676440064</v>
       </c>
       <c r="G95">
-        <v>46080.01258052549</v>
+        <v>42279.27076867296</v>
       </c>
       <c r="H95">
-        <v>46344.5990234375</v>
+        <v>42449.146875</v>
       </c>
       <c r="I95">
-        <v>45911.1640625</v>
+        <v>42493.92161458333</v>
       </c>
       <c r="L95">
-        <v>45.61589015104052</v>
+        <v>33.43732925344508</v>
       </c>
       <c r="M95">
-        <v>50.6224520877547</v>
+        <v>35.64395653601065</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4091,3209 +4082,3227 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>45958.546875</v>
+        <v>41239.76171875</v>
       </c>
       <c r="C96">
-        <v>46105.3984375</v>
+        <v>41462.7265625</v>
       </c>
       <c r="D96">
-        <v>44363.59765625</v>
+        <v>41118.4765625</v>
       </c>
       <c r="E96">
-        <v>44405.25</v>
+        <v>41437.66015625</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>204128256</v>
       </c>
       <c r="G96">
-        <v>45927.76143684136</v>
+        <v>42202.76071299814</v>
       </c>
       <c r="H96">
-        <v>46221.984765625</v>
+        <v>42376.3556640625</v>
       </c>
       <c r="I96">
-        <v>45921.91158854167</v>
+        <v>42448.101953125</v>
       </c>
       <c r="L96">
-        <v>27.10787231596765</v>
+        <v>38.0941804840987</v>
       </c>
       <c r="M96">
-        <v>36.19013834586631</v>
-      </c>
-      <c r="N96" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>38.57904434923234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>44427.8984375</v>
+        <v>41434.84375</v>
       </c>
       <c r="C97">
-        <v>44608.0078125</v>
+        <v>41438.8515625</v>
       </c>
       <c r="D97">
-        <v>43223.53515625</v>
+        <v>40719.53125</v>
       </c>
       <c r="E97">
-        <v>43435.46484375</v>
+        <v>40880.46875</v>
       </c>
       <c r="F97">
-        <v>2053689344</v>
+        <v>1400580096</v>
       </c>
       <c r="G97">
-        <v>45701.18901928759</v>
+        <v>42082.55235272558</v>
       </c>
       <c r="H97">
-        <v>46061.8955078125</v>
+        <v>42284.4986328125</v>
       </c>
       <c r="I97">
-        <v>45894.80455729167</v>
+        <v>42380.30598958334</v>
       </c>
       <c r="L97">
-        <v>21.13155504741236</v>
+        <v>31.40897803083838</v>
       </c>
       <c r="M97">
-        <v>30.40595528611262</v>
-      </c>
-      <c r="N97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>34.05576235579525</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>43434.98828125</v>
+        <v>40859.30078125</v>
       </c>
       <c r="C98">
-        <v>43967.53125</v>
+        <v>41845.5625</v>
       </c>
       <c r="D98">
-        <v>41903.76953125</v>
+        <v>40297.45703125</v>
       </c>
       <c r="E98">
-        <v>42842.4765625</v>
+        <v>41762.578125</v>
       </c>
       <c r="F98">
-        <v>5509791744</v>
+        <v>599771136</v>
       </c>
       <c r="G98">
-        <v>45441.30606867054</v>
+        <v>42053.46378656871</v>
       </c>
       <c r="H98">
-        <v>45859.6978515625</v>
+        <v>42230.351953125</v>
       </c>
       <c r="I98">
-        <v>45858.39674479167</v>
+        <v>42351.52994791666</v>
       </c>
       <c r="L98">
-        <v>18.34883336906246</v>
+        <v>47.74236440350276</v>
       </c>
       <c r="M98">
-        <v>27.51056835092463</v>
-      </c>
-      <c r="N98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>45.04172257032391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>42799.4453125</v>
+        <v>41768.64453125</v>
       </c>
       <c r="C99">
-        <v>42958.73046875</v>
+        <v>42134.16015625</v>
       </c>
       <c r="D99">
-        <v>42464.14453125</v>
+        <v>41514.0859375</v>
       </c>
       <c r="E99">
-        <v>42603.203125</v>
+        <v>41615.03125</v>
       </c>
       <c r="F99">
-        <v>1167687680</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>45183.29671015504</v>
+        <v>42013.60628324428</v>
       </c>
       <c r="H99">
-        <v>45645.56171875</v>
+        <v>42148.1826171875</v>
       </c>
       <c r="I99">
-        <v>45826.928125</v>
+        <v>42344.955859375</v>
       </c>
       <c r="L99">
-        <v>17.31385113840425</v>
+        <v>45.69480779609873</v>
       </c>
       <c r="M99">
-        <v>26.41743857177826</v>
-      </c>
-      <c r="N99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>43.72944003956193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>42604.015625</v>
+        <v>41624.58984375</v>
       </c>
       <c r="C100">
-        <v>43234.078125</v>
+        <v>41646.87109375</v>
       </c>
       <c r="D100">
-        <v>42568.70703125</v>
+        <v>41446.82421875</v>
       </c>
       <c r="E100">
-        <v>43112.1328125</v>
+        <v>41624.578125</v>
       </c>
       <c r="F100">
-        <v>442691584</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>44995.00908309549</v>
+        <v>41978.24008704026</v>
       </c>
       <c r="H100">
-        <v>45495.5212890625</v>
+        <v>42071.0958984375</v>
       </c>
       <c r="I100">
-        <v>45797.04427083334</v>
+        <v>42314.44375</v>
       </c>
       <c r="L100">
-        <v>27.14690189301914</v>
+        <v>45.86381428921758</v>
       </c>
       <c r="M100">
-        <v>32.55595927184022</v>
-      </c>
-      <c r="N100" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>43.84344630188761</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>43100.41796875</v>
+        <v>41611.37890625</v>
       </c>
       <c r="C101">
-        <v>43234.66015625</v>
+        <v>41740.5078125</v>
       </c>
       <c r="D101">
-        <v>42543.91796875</v>
+        <v>41549.92578125</v>
       </c>
       <c r="E101">
-        <v>42578.95703125</v>
+        <v>41634.421875</v>
       </c>
       <c r="F101">
-        <v>33169408</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>44775.36798747317</v>
+        <v>41946.98388594569</v>
       </c>
       <c r="H101">
-        <v>45317.8005859375</v>
+        <v>41995.9083984375</v>
       </c>
       <c r="I101">
-        <v>45729.08255208333</v>
+        <v>42278.88033854167</v>
       </c>
       <c r="L101">
-        <v>23.80975318155055</v>
+        <v>46.05854594022929</v>
       </c>
       <c r="M101">
-        <v>29.75535780490963</v>
-      </c>
-      <c r="N101" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>43.96950011582156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>42605.5390625</v>
+        <v>41628.4765625</v>
       </c>
       <c r="C102">
-        <v>43206.546875</v>
+        <v>41638.9609375</v>
       </c>
       <c r="D102">
-        <v>42517.94140625</v>
+        <v>41453.39453125</v>
       </c>
       <c r="E102">
-        <v>43182.5546875</v>
+        <v>41553.0390625</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>44630.56677838469</v>
+        <v>41911.17072017789</v>
       </c>
       <c r="H102">
-        <v>45187.324609375</v>
+        <v>41931.125</v>
       </c>
       <c r="I102">
-        <v>45666.87395833333</v>
+        <v>42241.3640625</v>
       </c>
       <c r="L102">
-        <v>34.12347928401812</v>
+        <v>44.56749739963806</v>
       </c>
       <c r="M102">
-        <v>36.42314415876761</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>43.10797106202383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>43161.7421875</v>
+        <v>41556.015625</v>
       </c>
       <c r="C103">
-        <v>43161.7421875</v>
+        <v>41665.328125</v>
       </c>
       <c r="D103">
-        <v>42752.671875</v>
+        <v>41469.83984375</v>
       </c>
       <c r="E103">
-        <v>42810.12109375</v>
+        <v>41538.546875</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>44465.07171614518</v>
+        <v>41877.29582516172</v>
       </c>
       <c r="H103">
-        <v>45054.2962890625</v>
+        <v>41875.1958984375</v>
       </c>
       <c r="I103">
-        <v>45526.28541666667</v>
+        <v>42217.39622395833</v>
       </c>
       <c r="L103">
-        <v>31.19245389361396</v>
+        <v>44.28032274422015</v>
       </c>
       <c r="M103">
-        <v>34.26207755782359</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>42.94659723733189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>42787.94921875</v>
+        <v>41541.4375</v>
       </c>
       <c r="C104">
-        <v>43014.17578125</v>
+        <v>41700.80078125</v>
       </c>
       <c r="D104">
-        <v>42718.98828125</v>
+        <v>41535.84375</v>
       </c>
       <c r="E104">
-        <v>42835.70703125</v>
+        <v>41651.875</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>44316.94765388197</v>
+        <v>41856.80302287429</v>
       </c>
       <c r="H104">
-        <v>44922.6748046875</v>
+        <v>41825</v>
       </c>
       <c r="I104">
-        <v>45388.728125</v>
+        <v>42173.82721354167</v>
       </c>
       <c r="L104">
-        <v>31.64622183365026</v>
+        <v>47.26946328132585</v>
       </c>
       <c r="M104">
-        <v>34.54938153876355</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>44.6902719731593</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>42842.26171875</v>
+        <v>41656.41015625</v>
       </c>
       <c r="C105">
-        <v>42874.4296875</v>
+        <v>41877.89453125</v>
       </c>
       <c r="D105">
-        <v>42654.546875</v>
+        <v>41635.90234375</v>
       </c>
       <c r="E105">
-        <v>42667.25</v>
+        <v>41671.3671875</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>44166.9751398927</v>
+        <v>41839.94521965845</v>
       </c>
       <c r="H105">
-        <v>44731.4345703125</v>
+        <v>41782.5609375</v>
       </c>
       <c r="I105">
-        <v>45245.50325520834</v>
+        <v>42145.08346354167</v>
       </c>
       <c r="L105">
-        <v>30.17239048800058</v>
+        <v>47.81120269079119</v>
       </c>
       <c r="M105">
-        <v>33.51093369481185</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>45.0016166233824</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>42670.75390625</v>
+        <v>41671.48828125</v>
       </c>
       <c r="C106">
-        <v>43048.32421875</v>
+        <v>41701.6328125</v>
       </c>
       <c r="D106">
-        <v>42561.640625</v>
+        <v>41605.625</v>
       </c>
       <c r="E106">
-        <v>42992.76953125</v>
+        <v>41659.8984375</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>44060.22917547064</v>
+        <v>41823.57733037131</v>
       </c>
       <c r="H106">
-        <v>44548.7388671875</v>
+        <v>41735.697265625</v>
       </c>
       <c r="I106">
-        <v>45116.677734375</v>
+        <v>42103.96393229167</v>
       </c>
       <c r="L106">
-        <v>36.59202409513249</v>
+        <v>47.48826216865445</v>
       </c>
       <c r="M106">
-        <v>37.42491249559004</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>44.84167485293033</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>43001.578125</v>
+        <v>41659.12109375</v>
       </c>
       <c r="C107">
-        <v>43065.59765625</v>
+        <v>41673.109375</v>
       </c>
       <c r="D107">
-        <v>42790.51171875</v>
+        <v>41563.06640625</v>
       </c>
       <c r="E107">
-        <v>42812.25</v>
+        <v>41630.16015625</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>43946.77652315512</v>
+        <v>41805.99395090574</v>
       </c>
       <c r="H107">
-        <v>44365.1384765625</v>
+        <v>41680.25703125</v>
       </c>
       <c r="I107">
-        <v>44989.177734375</v>
+        <v>42067.715625</v>
       </c>
       <c r="L107">
-        <v>34.60708253842099</v>
+        <v>46.5706534998036</v>
       </c>
       <c r="M107">
-        <v>36.1538847440172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>44.40100730560985</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>42816.33203125</v>
+        <v>41622.421875</v>
       </c>
       <c r="C108">
-        <v>42991.58203125</v>
+        <v>41791.6953125</v>
       </c>
       <c r="D108">
-        <v>42734.93359375</v>
+        <v>41622.421875</v>
       </c>
       <c r="E108">
-        <v>42914.34765625</v>
+        <v>41693.62890625</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>9916416</v>
       </c>
       <c r="G108">
-        <v>43852.91935343647</v>
+        <v>41795.77894684613</v>
       </c>
       <c r="H108">
-        <v>44206.3984375</v>
+        <v>41637.736328125</v>
       </c>
       <c r="I108">
-        <v>44856.775</v>
+        <v>42029.31953125</v>
       </c>
       <c r="L108">
-        <v>36.78880444967497</v>
+        <v>48.93958328674823</v>
       </c>
       <c r="M108">
-        <v>37.44782117286331</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>45.62908169671141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>42916.24609375</v>
+        <v>41694.94140625</v>
       </c>
       <c r="C109">
-        <v>42996.0390625</v>
+        <v>41855.3671875</v>
       </c>
       <c r="D109">
-        <v>42625.859375</v>
+        <v>41614.58203125</v>
       </c>
       <c r="E109">
-        <v>42625.859375</v>
+        <v>41642</v>
       </c>
       <c r="F109">
-        <v>143093760</v>
+        <v>74554368</v>
       </c>
       <c r="G109">
-        <v>43741.36844630588</v>
+        <v>41781.79904258739</v>
       </c>
       <c r="H109">
-        <v>43983.3767578125</v>
+        <v>41577.2830078125</v>
       </c>
       <c r="I109">
-        <v>44714.77278645834</v>
+        <v>41975.43893229167</v>
       </c>
       <c r="L109">
-        <v>33.26126140899303</v>
+        <v>47.03129170162092</v>
       </c>
       <c r="M109">
-        <v>35.27255470501905</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>44.76293007782468</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>42638.08984375</v>
+        <v>41633.1953125</v>
       </c>
       <c r="C110">
-        <v>42713.58203125</v>
+        <v>41702.5234375</v>
       </c>
       <c r="D110">
-        <v>41724.61328125</v>
+        <v>41548.75390625</v>
       </c>
       <c r="E110">
-        <v>41812.25390625</v>
+        <v>41700.04296875</v>
       </c>
       <c r="F110">
-        <v>4146829312</v>
+        <v>86165504</v>
       </c>
       <c r="G110">
-        <v>43565.99439720989</v>
+        <v>41774.36667223853</v>
       </c>
       <c r="H110">
-        <v>43739.4169921875</v>
+        <v>41537.78984375</v>
       </c>
       <c r="I110">
-        <v>44571.41653645833</v>
+        <v>41926.56328125</v>
       </c>
       <c r="L110">
-        <v>25.50270256986401</v>
+        <v>49.52075940323826</v>
       </c>
       <c r="M110">
-        <v>29.98287318389108</v>
-      </c>
-      <c r="N110" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>46.0038852140677</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>41715.06640625</v>
+        <v>41704.0546875</v>
       </c>
       <c r="C111">
-        <v>42616.390625</v>
+        <v>41768.4375</v>
       </c>
       <c r="D111">
-        <v>41705.41796875</v>
+        <v>41497.0078125</v>
       </c>
       <c r="E111">
-        <v>42539.94140625</v>
+        <v>41530.2890625</v>
       </c>
       <c r="F111">
-        <v>1710551040</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>43472.71685257718</v>
+        <v>41752.17779862594</v>
       </c>
       <c r="H111">
-        <v>43531.2103515625</v>
+        <v>41484.169140625</v>
       </c>
       <c r="I111">
-        <v>44451.635546875</v>
+        <v>41872.9671875</v>
       </c>
       <c r="L111">
-        <v>39.66398392785112</v>
+        <v>42.88864351810667</v>
       </c>
       <c r="M111">
-        <v>38.82011972625934</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>42.96381817684092</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>42552.171875</v>
+        <v>41553.65234375</v>
       </c>
       <c r="C112">
-        <v>42782.19140625</v>
+        <v>41651.20703125</v>
       </c>
       <c r="D112">
-        <v>42514.125</v>
+        <v>41065.3671875</v>
       </c>
       <c r="E112">
-        <v>42701.32421875</v>
+        <v>41156.62109375</v>
       </c>
       <c r="F112">
-        <v>640868352</v>
+        <v>1818608640</v>
       </c>
       <c r="G112">
-        <v>43402.59024950198</v>
+        <v>41698.03628000085</v>
       </c>
       <c r="H112">
-        <v>43346.1587890625</v>
+        <v>41494.4544921875</v>
       </c>
       <c r="I112">
-        <v>44348.610546875</v>
+        <v>41816.56432291667</v>
       </c>
       <c r="L112">
-        <v>42.39597785550546</v>
+        <v>32.20708089040224</v>
       </c>
       <c r="M112">
-        <v>40.61039643088338</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>37.14494204616645</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>42702.640625</v>
+        <v>41163.15234375</v>
       </c>
       <c r="C113">
-        <v>42748.234375</v>
+        <v>41242.07421875</v>
       </c>
       <c r="D113">
-        <v>42533.07421875</v>
+        <v>40711.3671875</v>
       </c>
       <c r="E113">
-        <v>42678.52734375</v>
+        <v>40998.20703125</v>
       </c>
       <c r="F113">
-        <v>730304512</v>
+        <v>2918541312</v>
       </c>
       <c r="G113">
-        <v>43336.76634897907</v>
+        <v>41634.41543920532</v>
       </c>
       <c r="H113">
-        <v>43176.4732421875</v>
+        <v>41481.3919921875</v>
       </c>
       <c r="I113">
-        <v>44255.53854166667</v>
+        <v>41761.26692708334</v>
       </c>
       <c r="L113">
-        <v>42.09308819477738</v>
+        <v>28.78761307691691</v>
       </c>
       <c r="M113">
-        <v>40.43041716266521</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>34.98186614155817</v>
+      </c>
+      <c r="N113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>42680.6640625</v>
+        <v>40995.65234375</v>
       </c>
       <c r="C114">
-        <v>42907.01953125</v>
+        <v>40995.65234375</v>
       </c>
       <c r="D114">
-        <v>42176.66796875</v>
+        <v>40380.54296875</v>
       </c>
       <c r="E114">
-        <v>42257.58203125</v>
+        <v>40833.05859375</v>
       </c>
       <c r="F114">
-        <v>2308460544</v>
+        <v>3580178432</v>
       </c>
       <c r="G114">
-        <v>43238.65868373097</v>
+        <v>41561.5648168912</v>
       </c>
       <c r="H114">
-        <v>42988.92109375</v>
+        <v>41472.2544921875</v>
       </c>
       <c r="I114">
-        <v>44148.52005208333</v>
+        <v>41700.50911458334</v>
       </c>
       <c r="L114">
-        <v>36.65336799664986</v>
+        <v>25.59990351820788</v>
       </c>
       <c r="M114">
-        <v>37.15589438601985</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>32.8351412858447</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>42254.97265625</v>
+        <v>40782.2265625</v>
       </c>
       <c r="C115">
-        <v>43319.72265625</v>
+        <v>41169.296875</v>
       </c>
       <c r="D115">
-        <v>42254.97265625</v>
+        <v>40373.9609375</v>
       </c>
       <c r="E115">
-        <v>42958.9453125</v>
+        <v>40684.15234375</v>
       </c>
       <c r="F115">
-        <v>2785239040</v>
+        <v>3519150080</v>
       </c>
       <c r="G115">
-        <v>43213.23019543725</v>
+        <v>41481.80004660563</v>
       </c>
       <c r="H115">
-        <v>42838.3458984375</v>
+        <v>41444.88125</v>
       </c>
       <c r="I115">
-        <v>44030.74973958333</v>
+        <v>41639.30924479166</v>
       </c>
       <c r="L115">
-        <v>49.00589051747623</v>
+        <v>23.01483567007398</v>
       </c>
       <c r="M115">
-        <v>45.12991665275055</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>30.98860206261246</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>42953.734375</v>
+        <v>40710.94921875</v>
       </c>
       <c r="C116">
-        <v>43077.4921875</v>
+        <v>40808.94921875</v>
       </c>
       <c r="D116">
-        <v>42386.90625</v>
+        <v>39450.1171875</v>
       </c>
       <c r="E116">
-        <v>42533.6796875</v>
+        <v>39748.34765625</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>6296436736</v>
       </c>
       <c r="G116">
-        <v>43151.45287653385</v>
+        <v>41324.21346566422</v>
       </c>
       <c r="H116">
-        <v>42744.7673828125</v>
+        <v>41360.415625</v>
       </c>
       <c r="I116">
-        <v>43893.649609375</v>
+        <v>41544.3484375</v>
       </c>
       <c r="L116">
-        <v>43.25262554015833</v>
+        <v>13.42807110497732</v>
       </c>
       <c r="M116">
-        <v>41.67681507041465</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>22.44563806060725</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>42499.3359375</v>
+        <v>39787.24609375</v>
       </c>
       <c r="C117">
-        <v>42893.484375</v>
+        <v>40292.63671875</v>
       </c>
       <c r="D117">
-        <v>42466.2578125</v>
+        <v>39450.40234375</v>
       </c>
       <c r="E117">
-        <v>42893.484375</v>
+        <v>39503.578125</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>3819585536</v>
       </c>
       <c r="G117">
-        <v>43128.00119457623</v>
+        <v>41158.70116196747</v>
       </c>
       <c r="H117">
-        <v>42717.668359375</v>
+        <v>41291.57109375</v>
       </c>
       <c r="I117">
-        <v>43773.95716145833</v>
+        <v>41436.50221354167</v>
       </c>
       <c r="L117">
-        <v>48.95644848102319</v>
+        <v>11.96188689634996</v>
       </c>
       <c r="M117">
-        <v>45.47790855576253</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>20.82824321448456</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>42887.0625</v>
+        <v>39518.71484375</v>
       </c>
       <c r="C118">
-        <v>42903.5859375</v>
+        <v>40074.1953125</v>
       </c>
       <c r="D118">
-        <v>42588.81640625</v>
+        <v>39510.87109375</v>
       </c>
       <c r="E118">
-        <v>42717.609375</v>
+        <v>39965.01953125</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>474808320</v>
       </c>
       <c r="G118">
-        <v>43090.69284734203</v>
+        <v>41050.18465008406</v>
       </c>
       <c r="H118">
-        <v>42711.425</v>
+        <v>41201.6931640625</v>
       </c>
       <c r="I118">
-        <v>43661.57252604167</v>
+        <v>41350.534765625</v>
       </c>
       <c r="L118">
-        <v>46.39222831216708</v>
+        <v>28.51567694510563</v>
       </c>
       <c r="M118">
-        <v>43.96942667321141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>30.93244622323387</v>
+      </c>
+      <c r="N118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>42742.01953125</v>
+        <v>39963.01953125</v>
       </c>
       <c r="C119">
-        <v>43094.55078125</v>
+        <v>40127.3515625</v>
       </c>
       <c r="D119">
-        <v>42691.921875</v>
+        <v>39654.76953125</v>
       </c>
       <c r="E119">
-        <v>42845.51171875</v>
+        <v>39705.5078125</v>
       </c>
       <c r="F119">
-        <v>415578112</v>
+        <v>97011712</v>
       </c>
       <c r="G119">
-        <v>43068.40365383367</v>
+        <v>40927.94130121278</v>
       </c>
       <c r="H119">
-        <v>42723.5404296875</v>
+        <v>41106.2169921875</v>
       </c>
       <c r="I119">
-        <v>43520.21315104167</v>
+        <v>41245.6828125</v>
       </c>
       <c r="L119">
-        <v>48.59503988034632</v>
+        <v>25.48397300916184</v>
       </c>
       <c r="M119">
-        <v>45.38811137626539</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>28.7130435430843</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>42858.9140625</v>
+        <v>39736.58203125</v>
       </c>
       <c r="C120">
-        <v>43294.61328125</v>
+        <v>39799.859375</v>
       </c>
       <c r="D120">
-        <v>42085.99609375</v>
+        <v>38631.640625</v>
       </c>
       <c r="E120">
-        <v>43258.41796875</v>
+        <v>38761.87890625</v>
       </c>
       <c r="F120">
-        <v>2860470272</v>
+        <v>2572158976</v>
       </c>
       <c r="G120">
-        <v>43085.67768246242</v>
+        <v>40731.02653803435</v>
       </c>
       <c r="H120">
-        <v>42730.8546875</v>
+        <v>40963.08203125</v>
       </c>
       <c r="I120">
-        <v>43405.77877604167</v>
+        <v>41121.415234375</v>
       </c>
       <c r="L120">
-        <v>55.27033826589729</v>
+        <v>17.7599739689939</v>
       </c>
       <c r="M120">
-        <v>49.80651893514052</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>22.4151826108871</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>43237.26953125</v>
+        <v>38802.8515625</v>
       </c>
       <c r="C121">
-        <v>43380.16796875</v>
+        <v>39361.01953125</v>
       </c>
       <c r="D121">
-        <v>42857.625</v>
+        <v>38521.89453125</v>
       </c>
       <c r="E121">
-        <v>43166.3125</v>
+        <v>39158.87109375</v>
       </c>
       <c r="F121">
-        <v>1066360832</v>
+        <v>1538893824</v>
       </c>
       <c r="G121">
-        <v>43093.00812042038</v>
+        <v>40588.10331582667</v>
       </c>
       <c r="H121">
-        <v>42760.2224609375</v>
+        <v>40839.3044921875</v>
       </c>
       <c r="I121">
-        <v>43287.85338541667</v>
+        <v>41006.62083333333</v>
       </c>
       <c r="L121">
-        <v>53.52605359408018</v>
+        <v>28.0774485338053</v>
       </c>
       <c r="M121">
-        <v>48.85695627444616</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>29.42828112789935</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>43157.125</v>
+        <v>39166.30859375</v>
       </c>
       <c r="C122">
-        <v>43566.2734375</v>
+        <v>39592.390625</v>
       </c>
       <c r="D122">
-        <v>43081.828125</v>
+        <v>38896.12109375</v>
       </c>
       <c r="E122">
-        <v>43138.171875</v>
+        <v>39130.44140625</v>
       </c>
       <c r="F122">
-        <v>1437816832</v>
+        <v>1020997632</v>
       </c>
       <c r="G122">
-        <v>43097.11391629126</v>
+        <v>40455.58859677425</v>
       </c>
       <c r="H122">
-        <v>42758.0033203125</v>
+        <v>40718.174609375</v>
       </c>
       <c r="I122">
-        <v>43179.047265625</v>
+        <v>40945.93841145833</v>
       </c>
       <c r="L122">
-        <v>52.95166513194743</v>
+        <v>27.7965024585868</v>
       </c>
       <c r="M122">
-        <v>48.55239052502936</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>29.22455072228419</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>43132.1015625</v>
+        <v>39129.25390625</v>
       </c>
       <c r="C123">
-        <v>43189.890625</v>
+        <v>39854.05859375</v>
       </c>
       <c r="D123">
-        <v>42848.70703125</v>
+        <v>39018.671875</v>
       </c>
       <c r="E123">
-        <v>42848.70703125</v>
+        <v>39826.38671875</v>
       </c>
       <c r="F123">
-        <v>156950528</v>
+        <v>291815424</v>
       </c>
       <c r="G123">
-        <v>43074.5314721966</v>
+        <v>40398.38842604477</v>
       </c>
       <c r="H123">
-        <v>42759.9326171875</v>
+        <v>40632.5666015625</v>
       </c>
       <c r="I123">
-        <v>43071.59622395833</v>
+        <v>40898.16940104167</v>
       </c>
       <c r="L123">
-        <v>47.10243809089886</v>
+        <v>43.39480025201096</v>
       </c>
       <c r="M123">
-        <v>45.41613393856566</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>40.1479475893769</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>42850.9296875</v>
+        <v>39877.59375</v>
       </c>
       <c r="C124">
-        <v>42895.58203125</v>
+        <v>40218.01953125</v>
       </c>
       <c r="D124">
-        <v>42620.265625</v>
+        <v>39563.7890625</v>
       </c>
       <c r="E124">
-        <v>42657.12890625</v>
+        <v>39578.9296875</v>
       </c>
       <c r="F124">
-        <v>250095616</v>
+        <v>968837120</v>
       </c>
       <c r="G124">
-        <v>43036.58578438327</v>
+        <v>40323.89217708616</v>
       </c>
       <c r="H124">
-        <v>42751.0037109375</v>
+        <v>40528.9193359375</v>
       </c>
       <c r="I124">
-        <v>42959.8796875</v>
+        <v>40850.2734375</v>
       </c>
       <c r="L124">
-        <v>43.52280624464803</v>
+        <v>39.94306435643806</v>
       </c>
       <c r="M124">
-        <v>43.41720389011745</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>37.9076227435742</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>42642.421875</v>
+        <v>39591.54296875</v>
       </c>
       <c r="C125">
-        <v>42825.80078125</v>
+        <v>40104.70703125</v>
       </c>
       <c r="D125">
-        <v>42553.41796875</v>
+        <v>39554.08203125</v>
       </c>
       <c r="E125">
-        <v>42655.79296875</v>
+        <v>39936.609375</v>
       </c>
       <c r="F125">
-        <v>363143168</v>
+        <v>711520256</v>
       </c>
       <c r="G125">
-        <v>43001.96825568934</v>
+        <v>40288.68464962378</v>
       </c>
       <c r="H125">
-        <v>42750.430859375</v>
+        <v>40442.1814453125</v>
       </c>
       <c r="I125">
-        <v>42849.39114583333</v>
+        <v>40807.10651041667</v>
       </c>
       <c r="L125">
-        <v>43.49687366242194</v>
+        <v>46.8214056399632</v>
       </c>
       <c r="M125">
-        <v>43.40285789538495</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>42.87001320017842</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>42657.89453125</v>
+        <v>39942.875</v>
       </c>
       <c r="C126">
-        <v>42880.05078125</v>
+        <v>40483.78515625</v>
       </c>
       <c r="D126">
-        <v>42412.78125</v>
+        <v>39852.16015625</v>
       </c>
       <c r="E126">
-        <v>42520.1484375</v>
+        <v>40180.40625</v>
       </c>
       <c r="F126">
-        <v>563935232</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>42958.16645403576</v>
+        <v>40278.84115874889</v>
       </c>
       <c r="H126">
-        <v>42726.7998046875</v>
+        <v>40368.2068359375</v>
       </c>
       <c r="I126">
-        <v>42786.55442708333</v>
+        <v>40765.198046875</v>
       </c>
       <c r="L126">
-        <v>40.72508840620808</v>
+        <v>51.11465047198099</v>
       </c>
       <c r="M126">
-        <v>41.88938841584834</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>46.03576739843155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>42460.83984375</v>
+        <v>40186.12890625</v>
       </c>
       <c r="C127">
-        <v>42703.4765625</v>
+        <v>40271.26953125</v>
       </c>
       <c r="D127">
-        <v>42189.30859375</v>
+        <v>39768.96484375</v>
       </c>
       <c r="E127">
-        <v>42597.171875</v>
+        <v>40020.890625</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>46841856</v>
       </c>
       <c r="G127">
-        <v>42925.3487650325</v>
+        <v>40255.39111022626</v>
       </c>
       <c r="H127">
-        <v>42716.0458984375</v>
+        <v>40287.743359375</v>
       </c>
       <c r="I127">
-        <v>42758.611328125</v>
+        <v>40736.54544270833</v>
       </c>
       <c r="L127">
-        <v>43.04364066343299</v>
+        <v>48.24749533397209</v>
       </c>
       <c r="M127">
-        <v>43.10264514400553</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>44.30581721193023</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>42587.1875</v>
+        <v>40032.5859375</v>
       </c>
       <c r="C128">
-        <v>42817.95703125</v>
+        <v>40170.71875</v>
       </c>
       <c r="D128">
-        <v>42459.29296875</v>
+        <v>39619.5625</v>
       </c>
       <c r="E128">
-        <v>42738.96484375</v>
+        <v>39806.59765625</v>
       </c>
       <c r="F128">
-        <v>109846528</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>42908.40477218864</v>
+        <v>40214.59170531933</v>
       </c>
       <c r="H128">
-        <v>42707.2767578125</v>
+        <v>40193.391796875</v>
       </c>
       <c r="I128">
-        <v>42755.1609375</v>
+        <v>40671.34609375</v>
       </c>
       <c r="L128">
-        <v>47.31182757314309</v>
+        <v>44.47699928088253</v>
       </c>
       <c r="M128">
-        <v>45.36411961586225</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>42.0212868522556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>42742.3125</v>
+        <v>39787.90234375</v>
       </c>
       <c r="C129">
-        <v>42745.890625</v>
+        <v>40155.6171875</v>
       </c>
       <c r="D129">
-        <v>42496.08984375</v>
+        <v>39508.796875</v>
       </c>
       <c r="E129">
-        <v>42544.04296875</v>
+        <v>40073.890625</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>93120512</v>
       </c>
       <c r="G129">
-        <v>42875.28097187604</v>
+        <v>40201.80069801757</v>
       </c>
       <c r="H129">
-        <v>42703.1859375</v>
+        <v>40114.986328125</v>
       </c>
       <c r="I129">
-        <v>42753.18893229167</v>
+        <v>40619.97473958333</v>
       </c>
       <c r="L129">
-        <v>42.39815134845571</v>
+        <v>49.96403893977354</v>
       </c>
       <c r="M129">
-        <v>42.84312826713327</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>45.7769321175624</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>42546.1796875</v>
+        <v>40075.55078125</v>
       </c>
       <c r="C130">
-        <v>42875.8984375</v>
+        <v>40154.67578125</v>
       </c>
       <c r="D130">
-        <v>42546.1796875</v>
+        <v>39920.35546875</v>
       </c>
       <c r="E130">
-        <v>42851.06640625</v>
+        <v>39998.15234375</v>
       </c>
       <c r="F130">
-        <v>105897984</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>42873.07964772821</v>
+        <v>40183.28721126598</v>
       </c>
       <c r="H130">
-        <v>42755.1265625</v>
+        <v>40029.891796875</v>
       </c>
       <c r="I130">
-        <v>42744.48671875</v>
+        <v>40565.760546875</v>
       </c>
       <c r="L130">
-        <v>51.35122562033994</v>
+        <v>48.43811516915482</v>
       </c>
       <c r="M130">
-        <v>47.76692478551657</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>44.88962379951487</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>42861.48828125</v>
+        <v>40003.63671875</v>
       </c>
       <c r="C131">
-        <v>42876.34765625</v>
+        <v>40106.41015625</v>
       </c>
       <c r="D131">
-        <v>42358.01171875</v>
+        <v>39779.9140625</v>
       </c>
       <c r="E131">
-        <v>42489.90625</v>
+        <v>40096.54296875</v>
       </c>
       <c r="F131">
-        <v>319928320</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>42838.24570248019</v>
+        <v>40175.40137103725</v>
       </c>
       <c r="H131">
-        <v>42752.6248046875</v>
+        <v>39958.2044921875</v>
       </c>
       <c r="I131">
-        <v>42741.518359375</v>
+        <v>40514.49791666667</v>
       </c>
       <c r="L131">
-        <v>42.59067985098154</v>
+        <v>50.64119742252193</v>
       </c>
       <c r="M131">
-        <v>43.0670161588091</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>46.34462731368096</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>42504.69921875</v>
+        <v>40098.65625</v>
       </c>
       <c r="C132">
-        <v>42765.02734375</v>
+        <v>40254.17578125</v>
       </c>
       <c r="D132">
-        <v>42340.296875</v>
+        <v>39967.70703125</v>
       </c>
       <c r="E132">
-        <v>42602.703125</v>
+        <v>40152.125</v>
       </c>
       <c r="F132">
-        <v>76670976</v>
+        <v>92649472</v>
       </c>
       <c r="G132">
-        <v>42816.83274089108</v>
+        <v>40173.28533730659</v>
       </c>
       <c r="H132">
-        <v>42747.69375</v>
+        <v>39907.9796875</v>
       </c>
       <c r="I132">
-        <v>42722.18997395833</v>
+        <v>40467.80078125</v>
       </c>
       <c r="L132">
-        <v>45.83729247825701</v>
+        <v>51.9460581587119</v>
       </c>
       <c r="M132">
-        <v>44.8907788391306</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>47.19280942301559</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>42589.18359375</v>
+        <v>40161.94140625</v>
       </c>
       <c r="C133">
-        <v>42589.18359375</v>
+        <v>40242.34375</v>
       </c>
       <c r="D133">
-        <v>40851.359375</v>
+        <v>39640.21484375</v>
       </c>
       <c r="E133">
-        <v>40950.9140625</v>
+        <v>39830.1875</v>
       </c>
       <c r="F133">
-        <v>4094134272</v>
+        <v>159258624</v>
       </c>
       <c r="G133">
-        <v>42647.20377012826</v>
+        <v>40142.09462482417</v>
       </c>
       <c r="H133">
-        <v>42661.3130859375</v>
+        <v>39849.5787109375</v>
       </c>
       <c r="I133">
-        <v>42660.21640625</v>
+        <v>40410.85546875</v>
       </c>
       <c r="L133">
-        <v>23.729465258651</v>
+        <v>44.31267306999838</v>
       </c>
       <c r="M133">
-        <v>29.82418305907833</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>42.95704208050607</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>40982.12890625</v>
+        <v>39796.85546875</v>
       </c>
       <c r="C134">
-        <v>41327.51171875</v>
+        <v>39986.03515625</v>
       </c>
       <c r="D134">
-        <v>40631.171875</v>
+        <v>39545.6640625</v>
       </c>
       <c r="E134">
-        <v>41259.45703125</v>
+        <v>39950.9453125</v>
       </c>
       <c r="F134">
-        <v>2532898816</v>
+        <v>569188352</v>
       </c>
       <c r="G134">
-        <v>42521.04497568478</v>
+        <v>40124.71741461289</v>
       </c>
       <c r="H134">
-        <v>42611.4068359375</v>
+        <v>39805.473046875</v>
       </c>
       <c r="I134">
-        <v>42607.67473958333</v>
+        <v>40354.1578125</v>
       </c>
       <c r="L134">
-        <v>30.74838976591943</v>
+        <v>47.56420923731565</v>
       </c>
       <c r="M134">
-        <v>34.26248678392479</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>44.95285317660539</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>41278.4609375</v>
+        <v>39962.18359375</v>
       </c>
       <c r="C135">
-        <v>41325.25</v>
+        <v>39980.28125</v>
       </c>
       <c r="D135">
-        <v>40749.3828125</v>
+        <v>39636.14453125</v>
       </c>
       <c r="E135">
-        <v>41015.80859375</v>
+        <v>39937.8046875</v>
       </c>
       <c r="F135">
-        <v>1305868288</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>42384.2053045998</v>
+        <v>40107.72534851172</v>
       </c>
       <c r="H135">
-        <v>42514.25</v>
+        <v>39768.1556640625</v>
       </c>
       <c r="I135">
-        <v>42552.62669270833</v>
+        <v>40296.37239583334</v>
       </c>
       <c r="L135">
-        <v>28.42454160096937</v>
+        <v>47.22663250594573</v>
       </c>
       <c r="M135">
-        <v>32.51373158768651</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>44.76929105001023</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>41011.7734375</v>
+        <v>39936.81640625</v>
       </c>
       <c r="C136">
-        <v>41509.2421875</v>
+        <v>40180.0546875</v>
       </c>
       <c r="D136">
-        <v>41008.92578125</v>
+        <v>39825.69140625</v>
       </c>
       <c r="E136">
-        <v>41231.6171875</v>
+        <v>40054.82421875</v>
       </c>
       <c r="F136">
-        <v>676440064</v>
+        <v>396767232</v>
       </c>
       <c r="G136">
-        <v>42279.42456668163</v>
+        <v>40102.91615489702</v>
       </c>
       <c r="H136">
-        <v>42449.146875</v>
+        <v>39783.4794921875</v>
       </c>
       <c r="I136">
-        <v>42493.92161458333</v>
+        <v>40242.869921875</v>
       </c>
       <c r="L136">
-        <v>33.43726945775929</v>
+        <v>50.72987907798048</v>
       </c>
       <c r="M136">
-        <v>35.64680133288082</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>46.85066755775714</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>41239.76171875</v>
+        <v>40051.75</v>
       </c>
       <c r="C137">
-        <v>41462.7265625</v>
+        <v>40181.91015625</v>
       </c>
       <c r="D137">
-        <v>41118.4765625</v>
+        <v>39902.55078125</v>
       </c>
       <c r="E137">
-        <v>41437.66015625</v>
+        <v>39958.69921875</v>
       </c>
       <c r="F137">
-        <v>204128256</v>
+        <v>212871168</v>
       </c>
       <c r="G137">
-        <v>42202.90052936966</v>
+        <v>40089.80552433819</v>
       </c>
       <c r="H137">
-        <v>42376.3556640625</v>
+        <v>39806.235546875</v>
       </c>
       <c r="I137">
-        <v>42448.101953125</v>
+        <v>40187.15455729167</v>
       </c>
       <c r="L137">
-        <v>38.09403201432745</v>
+        <v>47.79768137540171</v>
       </c>
       <c r="M137">
-        <v>38.57868996978949</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>45.3391739465635</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>41434.84375</v>
+        <v>39962.73828125</v>
       </c>
       <c r="C138">
-        <v>41438.8515625</v>
+        <v>41299.84375</v>
       </c>
       <c r="D138">
-        <v>40719.53125</v>
+        <v>39962.73828125</v>
       </c>
       <c r="E138">
-        <v>40880.46875</v>
+        <v>41279.234375</v>
       </c>
       <c r="F138">
-        <v>1400580096</v>
+        <v>3081857024</v>
       </c>
       <c r="G138">
-        <v>42082.67945851787</v>
+        <v>40197.9354198529</v>
       </c>
       <c r="H138">
-        <v>42284.4986328125</v>
+        <v>39871.9462890625</v>
       </c>
       <c r="I138">
-        <v>42380.30598958334</v>
+        <v>40173.34140625</v>
       </c>
       <c r="L138">
-        <v>31.40896552538326</v>
+        <v>72.42781425890634</v>
       </c>
       <c r="M138">
-        <v>34.05962589097395</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>62.99943686139686</v>
+      </c>
+      <c r="O138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>40859.30078125</v>
+        <v>41272.875</v>
       </c>
       <c r="C139">
-        <v>41845.5625</v>
+        <v>41541.41015625</v>
       </c>
       <c r="D139">
-        <v>40297.45703125</v>
+        <v>40942.30859375</v>
       </c>
       <c r="E139">
-        <v>41762.578125</v>
+        <v>41400.3671875</v>
       </c>
       <c r="F139">
-        <v>599771136</v>
+        <v>1963061248</v>
       </c>
       <c r="G139">
-        <v>42053.57933728897</v>
+        <v>40307.24739872991</v>
       </c>
       <c r="H139">
-        <v>42230.351953125</v>
+        <v>39956.6892578125</v>
       </c>
       <c r="I139">
-        <v>42351.52994791666</v>
+        <v>40165.28697916667</v>
       </c>
       <c r="L139">
-        <v>47.74215028732875</v>
+        <v>73.70797738772933</v>
       </c>
       <c r="M139">
-        <v>45.03648803008016</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>64.14384568835382</v>
+      </c>
+      <c r="O139" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>41768.64453125</v>
+        <v>41400.65625</v>
       </c>
       <c r="C140">
-        <v>42134.16015625</v>
+        <v>42164.74609375</v>
       </c>
       <c r="D140">
-        <v>41514.0859375</v>
+        <v>41400.65625</v>
       </c>
       <c r="E140">
-        <v>41615.03125</v>
+        <v>42022.640625</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1850863616</v>
       </c>
       <c r="G140">
-        <v>42013.71132935362</v>
+        <v>40463.19223748174</v>
       </c>
       <c r="H140">
-        <v>42148.1826171875</v>
+        <v>40119.72734375</v>
       </c>
       <c r="I140">
-        <v>42344.955859375</v>
+        <v>40176.040234375</v>
       </c>
       <c r="L140">
-        <v>45.69462741007608</v>
+        <v>79.27032975362057</v>
       </c>
       <c r="M140">
-        <v>43.72533843840311</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>69.38277806486363</v>
+      </c>
+      <c r="O140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>41624.58984375</v>
+        <v>42058.94140625</v>
       </c>
       <c r="C141">
-        <v>41646.87109375</v>
+        <v>42209.38671875</v>
       </c>
       <c r="D141">
-        <v>41446.82421875</v>
+        <v>41838.3359375</v>
       </c>
       <c r="E141">
-        <v>41624.578125</v>
+        <v>41856.6875</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>652836864</v>
       </c>
       <c r="G141">
-        <v>41978.33558350329</v>
+        <v>40589.8736249834</v>
       </c>
       <c r="H141">
-        <v>42071.0958984375</v>
+        <v>40254.6181640625</v>
       </c>
       <c r="I141">
-        <v>42314.44375</v>
+        <v>40186.92018229167</v>
       </c>
       <c r="L141">
-        <v>45.86363244473374</v>
+        <v>74.53908667523987</v>
       </c>
       <c r="M141">
-        <v>43.83926799080511</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>66.58851512841792</v>
+      </c>
+      <c r="O141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>41611.37890625</v>
+        <v>41815.625</v>
       </c>
       <c r="C142">
-        <v>41740.5078125</v>
+        <v>41926.40625</v>
       </c>
       <c r="D142">
-        <v>41549.92578125</v>
+        <v>41725.16796875</v>
       </c>
       <c r="E142">
-        <v>41634.421875</v>
+        <v>41809.05078125</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>195450880</v>
       </c>
       <c r="G142">
-        <v>41947.07070091207</v>
+        <v>40700.70791191672</v>
       </c>
       <c r="H142">
-        <v>41995.9083984375</v>
+        <v>40388.5486328125</v>
       </c>
       <c r="I142">
-        <v>42278.88033854167</v>
+        <v>40208.66783854167</v>
       </c>
       <c r="L142">
-        <v>46.05836243092284</v>
+        <v>73.12958170089966</v>
       </c>
       <c r="M142">
-        <v>43.96523739008892</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>65.7697061899127</v>
+      </c>
+      <c r="O142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>41628.4765625</v>
+        <v>41812.65234375</v>
       </c>
       <c r="C143">
-        <v>41638.9609375</v>
+        <v>41871.1328125</v>
       </c>
       <c r="D143">
-        <v>41453.39453125</v>
+        <v>41622.109375</v>
       </c>
       <c r="E143">
-        <v>41553.0390625</v>
+        <v>41691.609375</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>41911.24964287461</v>
+        <v>40790.78986310611</v>
       </c>
       <c r="H143">
-        <v>41931.125</v>
+        <v>40481.809765625</v>
       </c>
       <c r="I143">
-        <v>42241.3640625</v>
+        <v>40231.78125</v>
       </c>
       <c r="L143">
-        <v>44.56733701203689</v>
+        <v>69.48533613067352</v>
       </c>
       <c r="M143">
-        <v>43.10442024352687</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>63.6903867337303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>41556.015625</v>
+        <v>41706.1484375</v>
       </c>
       <c r="C144">
-        <v>41665.328125</v>
+        <v>41782.91015625</v>
       </c>
       <c r="D144">
-        <v>41469.83984375</v>
+        <v>41431.28125</v>
       </c>
       <c r="E144">
-        <v>41538.546875</v>
+        <v>41757.62890625</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>34424832</v>
       </c>
       <c r="G144">
-        <v>41877.36757306783</v>
+        <v>40878.68432157373</v>
       </c>
       <c r="H144">
-        <v>41875.1958984375</v>
+        <v>40590.7447265625</v>
       </c>
       <c r="I144">
-        <v>42217.39622395833</v>
+        <v>40262.60026041666</v>
       </c>
       <c r="L144">
-        <v>44.2801666778116</v>
+        <v>70.41762666528066</v>
       </c>
       <c r="M144">
-        <v>42.94317697592082</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>64.37228434642374</v>
+      </c>
+      <c r="O144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>41541.4375</v>
+        <v>41758.97265625</v>
       </c>
       <c r="C145">
-        <v>41700.80078125</v>
+        <v>41886.7109375</v>
       </c>
       <c r="D145">
-        <v>41535.84375</v>
+        <v>41717.12890625</v>
       </c>
       <c r="E145">
-        <v>41651.875</v>
+        <v>41817.4375</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>41856.86824824347</v>
+        <v>40964.02551961249</v>
       </c>
       <c r="H145">
-        <v>41825</v>
+        <v>40684.7861328125</v>
       </c>
       <c r="I145">
-        <v>42173.82721354167</v>
+        <v>40300.37643229167</v>
       </c>
       <c r="L145">
-        <v>47.26928320167474</v>
+        <v>71.31093773314005</v>
       </c>
       <c r="M145">
-        <v>44.68572769752483</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>65.01331120543118</v>
+      </c>
+      <c r="O145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>41656.41015625</v>
+        <v>41816.70703125</v>
       </c>
       <c r="C146">
-        <v>41877.89453125</v>
+        <v>41965.56640625</v>
       </c>
       <c r="D146">
-        <v>41635.90234375</v>
+        <v>41753.984375</v>
       </c>
       <c r="E146">
-        <v>41671.3671875</v>
+        <v>41915.40625</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>41840.00451544861</v>
+        <v>41050.51467692044</v>
       </c>
       <c r="H146">
-        <v>41782.5609375</v>
+        <v>40771.5361328125</v>
       </c>
       <c r="I146">
-        <v>42145.08346354167</v>
+        <v>40372.61171875</v>
       </c>
       <c r="L146">
-        <v>47.8110186520974</v>
+        <v>72.82325740125323</v>
       </c>
       <c r="M146">
-        <v>44.99687979231336</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>66.08960240730457</v>
+      </c>
+      <c r="O146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>41671.48828125</v>
+        <v>41914.578125</v>
       </c>
       <c r="C147">
-        <v>41701.6328125</v>
+        <v>42195.6328125</v>
       </c>
       <c r="D147">
-        <v>41605.625</v>
+        <v>41914.578125</v>
       </c>
       <c r="E147">
-        <v>41659.8984375</v>
+        <v>42119.79296875</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>18596864</v>
       </c>
       <c r="G147">
-        <v>41823.6312356351</v>
+        <v>41147.7217943595</v>
       </c>
       <c r="H147">
-        <v>41735.697265625</v>
+        <v>40876.48125</v>
       </c>
       <c r="I147">
-        <v>42103.96393229167</v>
+        <v>40459.81888020833</v>
       </c>
       <c r="L147">
-        <v>47.48808281256164</v>
+        <v>75.81540917171723</v>
       </c>
       <c r="M147">
-        <v>44.8370664973854</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>68.28182631216929</v>
+      </c>
+      <c r="O147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>41659.12109375</v>
+        <v>42126.125</v>
       </c>
       <c r="C148">
-        <v>41673.109375</v>
+        <v>42229.41796875</v>
       </c>
       <c r="D148">
-        <v>41563.06640625</v>
+        <v>41959.3984375</v>
       </c>
       <c r="E148">
-        <v>41630.16015625</v>
+        <v>42229.41796875</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>405324800</v>
       </c>
       <c r="G148">
-        <v>41806.04295569099</v>
+        <v>41246.05781021318</v>
       </c>
       <c r="H148">
-        <v>41680.25703125</v>
+        <v>40997.622265625</v>
       </c>
       <c r="I148">
-        <v>42067.715625</v>
+        <v>40535.298828125</v>
       </c>
       <c r="L148">
-        <v>46.57048719363006</v>
+        <v>77.32201661100574</v>
       </c>
       <c r="M148">
-        <v>44.39674880561209</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>69.4235999145655</v>
+      </c>
+      <c r="O148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>41622.421875</v>
+        <v>42223.47265625</v>
       </c>
       <c r="C149">
-        <v>41791.6953125</v>
+        <v>42797.17578125</v>
       </c>
       <c r="D149">
-        <v>41622.421875</v>
+        <v>42223.47265625</v>
       </c>
       <c r="E149">
-        <v>41693.62890625</v>
+        <v>42388</v>
       </c>
       <c r="F149">
-        <v>9916416</v>
+        <v>2194229248</v>
       </c>
       <c r="G149">
-        <v>41795.8234966509</v>
+        <v>41349.87073655743</v>
       </c>
       <c r="H149">
-        <v>41637.736328125</v>
+        <v>41113.327734375</v>
       </c>
       <c r="I149">
-        <v>42029.31953125</v>
+        <v>40624.715234375</v>
       </c>
       <c r="L149">
-        <v>48.9394007080454</v>
+        <v>79.40950925346296</v>
       </c>
       <c r="M149">
-        <v>45.62408705884385</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>71.04724383664144</v>
+      </c>
+      <c r="O149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>41694.94140625</v>
+        <v>42390.40625</v>
       </c>
       <c r="C150">
-        <v>41855.3671875</v>
+        <v>42681.6640625</v>
       </c>
       <c r="D150">
-        <v>41614.58203125</v>
+        <v>42338.703125</v>
       </c>
       <c r="E150">
-        <v>41642</v>
+        <v>42467.42578125</v>
       </c>
       <c r="F150">
-        <v>74554368</v>
+        <v>398971904</v>
       </c>
       <c r="G150">
-        <v>41781.83954240991</v>
+        <v>41451.4666497113</v>
       </c>
       <c r="H150">
-        <v>41577.2830078125</v>
+        <v>41236.79140625</v>
       </c>
       <c r="I150">
-        <v>41975.43893229167</v>
+        <v>40748.23346354167</v>
       </c>
       <c r="L150">
-        <v>47.03113454747125</v>
+        <v>80.42479187000573</v>
       </c>
       <c r="M150">
-        <v>44.75860456979127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>71.85340614219191</v>
+      </c>
+      <c r="O150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>41633.1953125</v>
+        <v>42473.265625</v>
       </c>
       <c r="C151">
-        <v>41702.5234375</v>
+        <v>42509.91796875</v>
       </c>
       <c r="D151">
-        <v>41548.75390625</v>
+        <v>42182.23828125</v>
       </c>
       <c r="E151">
-        <v>41700.04296875</v>
+        <v>42259.73046875</v>
       </c>
       <c r="F151">
-        <v>86165504</v>
+        <v>1018477568</v>
       </c>
       <c r="G151">
-        <v>41774.40349025901</v>
+        <v>41524.94517871481</v>
       </c>
       <c r="H151">
-        <v>41537.78984375</v>
+        <v>41344.95078125</v>
       </c>
       <c r="I151">
-        <v>41926.56328125</v>
+        <v>40851.59544270833</v>
       </c>
       <c r="J151">
-        <v>43487.74263020833</v>
+        <v>42810.60598958333</v>
       </c>
       <c r="L151">
-        <v>49.52058687709872</v>
+        <v>70.2365110885551</v>
       </c>
       <c r="M151">
-        <v>45.9988523652589</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>66.62890159334411</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>41704.0546875</v>
+        <v>42256.0859375</v>
       </c>
       <c r="C152">
-        <v>41768.4375</v>
+        <v>42336.37109375</v>
       </c>
       <c r="D152">
-        <v>41497.0078125</v>
+        <v>41742.24609375</v>
       </c>
       <c r="E152">
-        <v>41530.2890625</v>
+        <v>41786.390625</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>993573888</v>
       </c>
       <c r="G152">
-        <v>41752.21126955364</v>
+        <v>41548.71294655892</v>
       </c>
       <c r="H152">
-        <v>41484.169140625</v>
+        <v>41426.6640625</v>
       </c>
       <c r="I152">
-        <v>41872.9671875</v>
+        <v>40940.12708333333</v>
       </c>
       <c r="J152">
-        <v>43461.8160928877</v>
+        <v>42797.04022316501</v>
       </c>
       <c r="L152">
-        <v>42.88854660666151</v>
+        <v>53.01687480796036</v>
       </c>
       <c r="M152">
-        <v>42.96095829526509</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>56.5391972405363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>41553.65234375</v>
+        <v>41790.0078125</v>
       </c>
       <c r="C153">
-        <v>41651.20703125</v>
+        <v>42065.34375</v>
       </c>
       <c r="D153">
-        <v>41065.3671875</v>
+        <v>41696.91015625</v>
       </c>
       <c r="E153">
-        <v>41156.62109375</v>
+        <v>42029.4375</v>
       </c>
       <c r="F153">
-        <v>1818608640</v>
+        <v>611121152</v>
       </c>
       <c r="G153">
-        <v>41698.06670811694</v>
+        <v>41592.41517868993</v>
       </c>
       <c r="H153">
-        <v>41494.4544921875</v>
+        <v>41536.6265625</v>
       </c>
       <c r="I153">
-        <v>41816.56432291667</v>
+        <v>41013.562109375</v>
       </c>
       <c r="J153">
-        <v>43431.28370879315</v>
+        <v>42786.87329967938</v>
       </c>
       <c r="L153">
-        <v>32.20707162280947</v>
+        <v>58.84528539807133</v>
       </c>
       <c r="M153">
-        <v>37.14551539318781</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>59.8972791700913</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>41163.15234375</v>
+        <v>42030.9140625</v>
       </c>
       <c r="C154">
-        <v>41242.07421875</v>
+        <v>42477.41796875</v>
       </c>
       <c r="D154">
-        <v>40711.3671875</v>
+        <v>41894.50390625</v>
       </c>
       <c r="E154">
-        <v>40998.20703125</v>
+        <v>42336.76953125</v>
       </c>
       <c r="F154">
-        <v>2918541312</v>
+        <v>411137024</v>
       </c>
       <c r="G154">
-        <v>41634.44310112904</v>
+        <v>41660.0837561954</v>
       </c>
       <c r="H154">
-        <v>41481.3919921875</v>
+        <v>41655.9177734375</v>
       </c>
       <c r="I154">
-        <v>41761.26692708334</v>
+        <v>41105.49010416667</v>
       </c>
       <c r="J154">
-        <v>43399.05752763365</v>
+        <v>42780.91166036244</v>
       </c>
       <c r="L154">
-        <v>28.78762296540186</v>
+        <v>65.01856763249329</v>
       </c>
       <c r="M154">
-        <v>34.98347254899185</v>
-      </c>
-      <c r="N154" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>63.71515090182184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>40995.65234375</v>
+        <v>42333.6015625</v>
       </c>
       <c r="C155">
-        <v>40995.65234375</v>
+        <v>42333.6015625</v>
       </c>
       <c r="D155">
-        <v>40380.54296875</v>
+        <v>42025.40625</v>
       </c>
       <c r="E155">
-        <v>40833.05859375</v>
+        <v>42047.47265625</v>
       </c>
       <c r="F155">
-        <v>3580178432</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>41561.58996409459</v>
+        <v>41695.30092892763</v>
       </c>
       <c r="H155">
-        <v>41472.2544921875</v>
+        <v>41761.401171875</v>
       </c>
       <c r="I155">
-        <v>41700.50911458334</v>
+        <v>41175.85221354166</v>
       </c>
       <c r="J155">
-        <v>43365.07078678751</v>
+        <v>42771.19723646691</v>
       </c>
       <c r="L155">
-        <v>25.59992737637482</v>
+        <v>56.10615148253678</v>
       </c>
       <c r="M155">
-        <v>32.83764261063957</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>58.10727254325106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>40782.2265625</v>
+        <v>42048.78125</v>
       </c>
       <c r="C156">
-        <v>41169.296875</v>
+        <v>42366.20703125</v>
       </c>
       <c r="D156">
-        <v>40373.9609375</v>
+        <v>41966.58203125</v>
       </c>
       <c r="E156">
-        <v>40684.15234375</v>
+        <v>42223.18359375</v>
       </c>
       <c r="F156">
-        <v>3519150080</v>
+        <v>35737600</v>
       </c>
       <c r="G156">
-        <v>41481.82290769962</v>
+        <v>41743.2902620933</v>
       </c>
       <c r="H156">
-        <v>41444.88125</v>
+        <v>41869.819140625</v>
       </c>
       <c r="I156">
-        <v>41639.30924479166</v>
+        <v>41243.94479166667</v>
       </c>
       <c r="J156">
-        <v>43329.56193323735</v>
+        <v>42763.93877762299</v>
       </c>
       <c r="L156">
-        <v>23.0148681020878</v>
+        <v>59.86526970330746</v>
       </c>
       <c r="M156">
-        <v>30.99176928076478</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>60.38774669030139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>40710.94921875</v>
+        <v>42231.26171875</v>
       </c>
       <c r="C157">
-        <v>40808.94921875</v>
+        <v>42601.80078125</v>
       </c>
       <c r="D157">
-        <v>39450.1171875</v>
+        <v>41818.33203125</v>
       </c>
       <c r="E157">
-        <v>39748.34765625</v>
+        <v>42601.80078125</v>
       </c>
       <c r="F157">
-        <v>6296436736</v>
+        <v>1446971392</v>
       </c>
       <c r="G157">
-        <v>41324.23424847693</v>
+        <v>41821.33667292573</v>
       </c>
       <c r="H157">
-        <v>41360.415625</v>
+        <v>42001.97421875</v>
       </c>
       <c r="I157">
-        <v>41544.3484375</v>
+        <v>41329.97513020833</v>
       </c>
       <c r="J157">
-        <v>43282.1286315554</v>
+        <v>42761.79125449222</v>
       </c>
       <c r="L157">
-        <v>13.42811379205654</v>
+        <v>66.76499925453555</v>
       </c>
       <c r="M157">
-        <v>22.45063534900507</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>64.83037942525696</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>39787.24609375</v>
+        <v>42620.609375</v>
       </c>
       <c r="C158">
-        <v>40292.63671875</v>
+        <v>43301.41796875</v>
       </c>
       <c r="D158">
-        <v>39450.40234375</v>
+        <v>42544.390625</v>
       </c>
       <c r="E158">
-        <v>39503.578125</v>
+        <v>43013.08984375</v>
       </c>
       <c r="F158">
-        <v>3819585536</v>
+        <v>3922208768</v>
       </c>
       <c r="G158">
-        <v>41158.72005543357</v>
+        <v>41929.67787027339</v>
       </c>
       <c r="H158">
-        <v>41291.57109375</v>
+        <v>42088.6669921875</v>
       </c>
       <c r="I158">
-        <v>41436.50221354167</v>
+        <v>41436.858203125</v>
       </c>
       <c r="J158">
-        <v>43232.08160497851</v>
+        <v>42765.11971262809</v>
       </c>
       <c r="L158">
-        <v>11.9619281601828</v>
+        <v>72.53516261633141</v>
       </c>
       <c r="M158">
-        <v>20.83335538132564</v>
-      </c>
-      <c r="N158" t="s">
+        <v>68.90952945177962</v>
+      </c>
+      <c r="O158" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>39518.71484375</v>
+        <v>43000.62890625</v>
       </c>
       <c r="C159">
-        <v>40074.1953125</v>
+        <v>43305.8671875</v>
       </c>
       <c r="D159">
-        <v>39510.87109375</v>
+        <v>43000.62890625</v>
       </c>
       <c r="E159">
-        <v>39965.01953125</v>
+        <v>43276.203125</v>
       </c>
       <c r="F159">
-        <v>474808320</v>
+        <v>515713024</v>
       </c>
       <c r="G159">
-        <v>41050.20182596234</v>
+        <v>42052.08925706671</v>
       </c>
       <c r="H159">
-        <v>41201.6931640625</v>
+        <v>42182.4587890625</v>
       </c>
       <c r="I159">
-        <v>41350.534765625</v>
+        <v>41543.601953125</v>
       </c>
       <c r="J159">
-        <v>43188.80925963111</v>
+        <v>42771.88902934825</v>
       </c>
       <c r="L159">
-        <v>28.5156807689925</v>
+        <v>75.58575291164328</v>
       </c>
       <c r="M159">
-        <v>30.93431803033086</v>
-      </c>
-      <c r="N159" t="s">
+        <v>71.21003569181266</v>
+      </c>
+      <c r="O159" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>39963.01953125</v>
+        <v>43300.2265625</v>
       </c>
       <c r="C160">
-        <v>40127.3515625</v>
+        <v>43750.42578125</v>
       </c>
       <c r="D160">
-        <v>39654.76953125</v>
+        <v>43154.61328125</v>
       </c>
       <c r="E160">
-        <v>39705.5078125</v>
+        <v>43506.83984375</v>
       </c>
       <c r="F160">
-        <v>97011712</v>
+        <v>1653862400</v>
       </c>
       <c r="G160">
-        <v>40927.95691564758</v>
+        <v>42184.33931040156</v>
       </c>
       <c r="H160">
-        <v>41106.2169921875</v>
+        <v>42256.66875</v>
       </c>
       <c r="I160">
-        <v>41245.6828125</v>
+        <v>41660.558203125</v>
       </c>
       <c r="J160">
-        <v>43142.67281662275</v>
+        <v>42781.62347722112</v>
       </c>
       <c r="L160">
-        <v>25.48398128445767</v>
+        <v>77.99592559416858</v>
       </c>
       <c r="M160">
-        <v>28.71530877960244</v>
-      </c>
-      <c r="N160" t="s">
+        <v>73.08971912907359</v>
+      </c>
+      <c r="O160" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>39736.58203125</v>
+        <v>43513.42578125</v>
       </c>
       <c r="C161">
-        <v>39799.859375</v>
+        <v>43552.82421875</v>
       </c>
       <c r="D161">
-        <v>38631.640625</v>
+        <v>43269.71875</v>
       </c>
       <c r="E161">
-        <v>38761.87890625</v>
+        <v>43351.80859375</v>
       </c>
       <c r="F161">
-        <v>2572158976</v>
+        <v>295055360</v>
       </c>
       <c r="G161">
-        <v>40731.04073297507</v>
+        <v>42290.47288161505</v>
       </c>
       <c r="H161">
-        <v>40963.08203125</v>
+        <v>42331.4248046875</v>
       </c>
       <c r="I161">
-        <v>41121.415234375</v>
+        <v>41769.06705729166</v>
       </c>
       <c r="J161">
-        <v>43084.64905622047</v>
+        <v>42789.17559796984</v>
       </c>
       <c r="L161">
-        <v>17.7599883616099</v>
+        <v>72.57776660962598</v>
       </c>
       <c r="M161">
-        <v>22.41812012744403</v>
-      </c>
-      <c r="N161" t="s">
+        <v>69.79119471861853</v>
+      </c>
+      <c r="O161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>38802.8515625</v>
+        <v>43353.484375</v>
       </c>
       <c r="C162">
-        <v>39361.01953125</v>
+        <v>43547.5078125</v>
       </c>
       <c r="D162">
-        <v>38521.89453125</v>
+        <v>43238.62890625</v>
       </c>
       <c r="E162">
-        <v>39158.87109375</v>
+        <v>43542.4375</v>
       </c>
       <c r="F162">
-        <v>1538893824</v>
+        <v>405159936</v>
       </c>
       <c r="G162">
-        <v>40588.11622031824</v>
+        <v>42404.28784692278</v>
       </c>
       <c r="H162">
-        <v>40839.3044921875</v>
+        <v>42418.094140625</v>
       </c>
       <c r="I162">
-        <v>41006.62083333333</v>
+        <v>41882.07747395834</v>
       </c>
       <c r="J162">
-        <v>43032.65199711491</v>
+        <v>42799.15257680468</v>
       </c>
       <c r="L162">
-        <v>28.07745104457803</v>
+        <v>74.98188798849812</v>
       </c>
       <c r="M162">
-        <v>29.4297690070367</v>
-      </c>
-      <c r="N162" t="s">
+        <v>71.49469900744938</v>
+      </c>
+      <c r="O162" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>39166.30859375</v>
+        <v>43535.8671875</v>
       </c>
       <c r="C163">
-        <v>39592.390625</v>
+        <v>43838.9453125</v>
       </c>
       <c r="D163">
-        <v>38896.12109375</v>
+        <v>43139.0234375</v>
       </c>
       <c r="E163">
-        <v>39130.44140625</v>
+        <v>43349.89453125</v>
       </c>
       <c r="F163">
-        <v>1020997632</v>
+        <v>1683910656</v>
       </c>
       <c r="G163">
-        <v>40455.60032813022</v>
+        <v>42490.25209095253</v>
       </c>
       <c r="H163">
-        <v>40718.174609375</v>
+        <v>42501.0083984375</v>
       </c>
       <c r="I163">
-        <v>40945.93841145833</v>
+        <v>41999.40104166666</v>
       </c>
       <c r="J163">
-        <v>42980.96708862663</v>
+        <v>42806.4471722278</v>
       </c>
       <c r="L163">
-        <v>27.79650521586747</v>
+        <v>68.18893078504185</v>
       </c>
       <c r="M163">
-        <v>29.22606246414125</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>67.36276678407411</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>39129.25390625</v>
+        <v>43365.5625</v>
       </c>
       <c r="C164">
-        <v>39854.05859375</v>
+        <v>43586.52734375</v>
       </c>
       <c r="D164">
-        <v>39018.671875</v>
+        <v>43233.5234375</v>
       </c>
       <c r="E164">
-        <v>39826.38671875</v>
+        <v>43534.57421875</v>
       </c>
       <c r="F164">
-        <v>291815424</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>40398.39909091384</v>
+        <v>42585.19046620684</v>
       </c>
       <c r="H164">
-        <v>40632.5666015625</v>
+        <v>42589.8556640625</v>
       </c>
       <c r="I164">
-        <v>40898.16940104167</v>
+        <v>42118.85533854167</v>
       </c>
       <c r="J164">
-        <v>42939.18456717132</v>
+        <v>42816.09123906915</v>
       </c>
       <c r="L164">
-        <v>43.39479059052022</v>
+        <v>71.02174876406605</v>
       </c>
       <c r="M164">
-        <v>40.14767706166266</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>69.20136552805056</v>
+      </c>
+      <c r="O164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>39877.59375</v>
+        <v>43545.546875</v>
       </c>
       <c r="C165">
-        <v>40218.01953125</v>
+        <v>43731.90625</v>
       </c>
       <c r="D165">
-        <v>39563.7890625</v>
+        <v>42711.37109375</v>
       </c>
       <c r="E165">
-        <v>39578.9296875</v>
+        <v>42941.28125</v>
       </c>
       <c r="F165">
-        <v>968837120</v>
+        <v>1644042240</v>
       </c>
       <c r="G165">
-        <v>40323.90187242167</v>
+        <v>42617.56235564258</v>
       </c>
       <c r="H165">
-        <v>40528.9193359375</v>
+        <v>42646.0478515625</v>
       </c>
       <c r="I165">
-        <v>40850.2734375</v>
+        <v>42218.97122395833</v>
       </c>
       <c r="J165">
-        <v>42894.67788002336</v>
+        <v>42817.74938490929</v>
       </c>
       <c r="L165">
-        <v>39.94305787166495</v>
+        <v>53.72936984510855</v>
       </c>
       <c r="M165">
-        <v>37.9076672718373</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>57.91401412747634</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>39591.54296875</v>
+        <v>42946.25</v>
       </c>
       <c r="C166">
-        <v>40104.70703125</v>
+        <v>43053.9375</v>
       </c>
       <c r="D166">
-        <v>39554.08203125</v>
+        <v>42691.06640625</v>
       </c>
       <c r="E166">
-        <v>39936.609375</v>
+        <v>42917.40234375</v>
       </c>
       <c r="F166">
-        <v>711520256</v>
+        <v>451825664</v>
       </c>
       <c r="G166">
-        <v>40288.69346356516</v>
+        <v>42644.82053637962</v>
       </c>
       <c r="H166">
-        <v>40442.1814453125</v>
+        <v>42696.14765625</v>
       </c>
       <c r="I166">
-        <v>40807.10651041667</v>
+        <v>42314.39049479167</v>
       </c>
       <c r="J166">
-        <v>42855.49816472504</v>
+        <v>42819.06929164891</v>
       </c>
       <c r="L166">
-        <v>46.8213956486098</v>
+        <v>53.14348646826473</v>
       </c>
       <c r="M166">
-        <v>42.86944283869015</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>57.50744781765948</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>39942.875</v>
+        <v>42917.01171875</v>
       </c>
       <c r="C167">
-        <v>40483.78515625</v>
+        <v>43048.8671875</v>
       </c>
       <c r="D167">
-        <v>39852.16015625</v>
+        <v>42869.16015625</v>
       </c>
       <c r="E167">
-        <v>40180.40625</v>
+        <v>43048.8671875</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>6277120</v>
       </c>
       <c r="G167">
-        <v>40278.84917142287</v>
+        <v>42681.55205011783</v>
       </c>
       <c r="H167">
-        <v>40368.2068359375</v>
+        <v>42742.6013671875</v>
       </c>
       <c r="I167">
-        <v>40765.198046875</v>
+        <v>42417.39609375</v>
       </c>
       <c r="J167">
-        <v>42820.0664837353</v>
+        <v>42822.11297238867</v>
       </c>
       <c r="L167">
-        <v>51.11463884911</v>
+        <v>56.10786626222122</v>
       </c>
       <c r="M167">
-        <v>46.03486024876073</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>59.20541811534977</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>40186.12890625</v>
+        <v>43038.32421875</v>
       </c>
       <c r="C168">
-        <v>40271.26953125</v>
+        <v>43047.10546875</v>
       </c>
       <c r="D168">
-        <v>39768.96484375</v>
+        <v>42356.31640625</v>
       </c>
       <c r="E168">
-        <v>40020.890625</v>
+        <v>42629.55078125</v>
       </c>
       <c r="F168">
-        <v>46841856</v>
+        <v>1043482624</v>
       </c>
       <c r="G168">
-        <v>40255.39839447533</v>
+        <v>42676.82466203893</v>
       </c>
       <c r="H168">
-        <v>40287.743359375</v>
+        <v>42762.6080078125</v>
       </c>
       <c r="I168">
-        <v>40736.54544270833</v>
+        <v>42462.406640625</v>
       </c>
       <c r="J168">
-        <v>42782.99130679842</v>
+        <v>42819.56247979081</v>
       </c>
       <c r="L168">
-        <v>48.24748589998934</v>
+        <v>45.72723892328423</v>
       </c>
       <c r="M168">
-        <v>44.30513789313999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>52.05984522182661</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>40032.5859375</v>
+        <v>42624.26171875</v>
       </c>
       <c r="C169">
-        <v>40170.71875</v>
+        <v>43418.1328125</v>
       </c>
       <c r="D169">
-        <v>39619.5625</v>
+        <v>42511.5</v>
       </c>
       <c r="E169">
-        <v>39806.59765625</v>
+        <v>43343.2890625</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>924717056</v>
       </c>
       <c r="G169">
-        <v>40214.59832736394</v>
+        <v>42737.41233480811</v>
       </c>
       <c r="H169">
-        <v>40193.391796875</v>
+        <v>42810.3724609375</v>
       </c>
       <c r="I169">
-        <v>40671.34609375</v>
+        <v>42527.170703125</v>
       </c>
       <c r="J169">
-        <v>42743.56887434082</v>
+        <v>42826.49925572074</v>
       </c>
       <c r="L169">
-        <v>44.47699244736897</v>
+        <v>59.9250765902386</v>
       </c>
       <c r="M169">
-        <v>42.02088522166052</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>60.7445880013962</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>39787.90234375</v>
+        <v>43350.87890625</v>
       </c>
       <c r="C170">
-        <v>40155.6171875</v>
+        <v>43717.40625</v>
       </c>
       <c r="D170">
-        <v>39508.796875</v>
+        <v>43056.84375</v>
       </c>
       <c r="E170">
-        <v>40073.890625</v>
+        <v>43319.1171875</v>
       </c>
       <c r="F170">
-        <v>93120512</v>
+        <v>1023680512</v>
       </c>
       <c r="G170">
-        <v>40201.80671805813</v>
+        <v>42790.29459414374</v>
       </c>
       <c r="H170">
-        <v>40114.986328125</v>
+        <v>42852.95703125</v>
       </c>
       <c r="I170">
-        <v>40619.97473958333</v>
+        <v>42570.38658854167</v>
       </c>
       <c r="J170">
-        <v>42708.20889752837</v>
+        <v>42833.02399653901</v>
       </c>
       <c r="L170">
-        <v>49.96403033808444</v>
+        <v>59.33369802640378</v>
       </c>
       <c r="M170">
-        <v>45.7761834117859</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>60.34587431407343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>40075.55078125</v>
+        <v>43317.0703125</v>
       </c>
       <c r="C171">
-        <v>40154.67578125</v>
+        <v>43335.83203125</v>
       </c>
       <c r="D171">
-        <v>39920.35546875</v>
+        <v>42298.9453125</v>
       </c>
       <c r="E171">
-        <v>39998.15234375</v>
+        <v>42590.13671875</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1331666944</v>
       </c>
       <c r="G171">
-        <v>40183.29268403012</v>
+        <v>42772.0984236534</v>
       </c>
       <c r="H171">
-        <v>40029.891796875</v>
+        <v>42869.47734375</v>
       </c>
       <c r="I171">
-        <v>40565.760546875</v>
+        <v>42594.83489583333</v>
       </c>
       <c r="J171">
-        <v>42672.3141087366</v>
+        <v>42829.80694650207</v>
       </c>
       <c r="L171">
-        <v>48.43810748893805</v>
+        <v>44.45061691560704</v>
       </c>
       <c r="M171">
-        <v>44.88897604222671</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>49.74195045324152</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>40003.63671875</v>
+        <v>42569.76171875</v>
       </c>
       <c r="C172">
-        <v>40106.41015625</v>
+        <v>42632.48046875</v>
       </c>
       <c r="D172">
-        <v>39779.9140625</v>
+        <v>41879.19140625</v>
       </c>
       <c r="E172">
-        <v>40096.54296875</v>
+        <v>41995.87890625</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>790040576</v>
       </c>
       <c r="G172">
-        <v>40175.40634627737</v>
+        <v>42701.53301298036</v>
       </c>
       <c r="H172">
-        <v>39958.2044921875</v>
+        <v>42879.9517578125</v>
       </c>
       <c r="I172">
-        <v>40514.49791666667</v>
+        <v>42601.0625</v>
       </c>
       <c r="J172">
-        <v>42638.19793469705</v>
+        <v>42818.76154199542</v>
       </c>
       <c r="L172">
-        <v>50.64118915997911</v>
+        <v>36.13754392092066</v>
       </c>
       <c r="M172">
-        <v>46.34385865864994</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>43.09410952935595</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>40098.65625</v>
+        <v>41988.73828125</v>
       </c>
       <c r="C173">
-        <v>40254.17578125</v>
+        <v>42251.98046875</v>
       </c>
       <c r="D173">
-        <v>39967.70703125</v>
+        <v>41896.6015625</v>
       </c>
       <c r="E173">
-        <v>40152.125</v>
+        <v>42185.4140625</v>
       </c>
       <c r="F173">
-        <v>92649472</v>
+        <v>672206848</v>
       </c>
       <c r="G173">
-        <v>40173.28986025215</v>
+        <v>42654.61310839124</v>
       </c>
       <c r="H173">
-        <v>39907.9796875</v>
+        <v>42887.7505859375</v>
       </c>
       <c r="I173">
-        <v>40467.80078125</v>
+        <v>42617.52265625</v>
       </c>
       <c r="J173">
-        <v>42605.26981635669</v>
+        <v>42810.37283365773</v>
       </c>
       <c r="L173">
-        <v>51.94604958958968</v>
+        <v>40.15350869570594</v>
       </c>
       <c r="M173">
-        <v>47.19197374451081</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>45.59170713110865</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>40161.94140625</v>
+        <v>42160.23046875</v>
       </c>
       <c r="C174">
-        <v>40242.34375</v>
+        <v>42287.953125</v>
       </c>
       <c r="D174">
-        <v>39640.21484375</v>
+        <v>42028.671875</v>
       </c>
       <c r="E174">
-        <v>39830.1875</v>
+        <v>42028.671875</v>
       </c>
       <c r="F174">
-        <v>159258624</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>40142.09873659287</v>
+        <v>42597.70935990113</v>
       </c>
       <c r="H174">
-        <v>39849.5787109375</v>
+        <v>42872.345703125</v>
       </c>
       <c r="I174">
-        <v>40410.85546875</v>
+        <v>42626.557421875</v>
       </c>
       <c r="J174">
-        <v>42568.5137591864</v>
+        <v>42800.01917857618</v>
       </c>
       <c r="L174">
-        <v>44.31266838006052</v>
+        <v>37.93417035320548</v>
       </c>
       <c r="M174">
-        <v>42.95664130284043</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>43.87664648712133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>39796.85546875</v>
+        <v>42045.484375</v>
       </c>
       <c r="C175">
-        <v>39986.03515625</v>
+        <v>42908.3203125</v>
       </c>
       <c r="D175">
-        <v>39545.6640625</v>
+        <v>41933.18359375</v>
       </c>
       <c r="E175">
-        <v>39950.9453125</v>
+        <v>42548.1171875</v>
       </c>
       <c r="F175">
-        <v>569188352</v>
+        <v>214921216</v>
       </c>
       <c r="G175">
-        <v>40124.72115258442</v>
+        <v>42593.20098059193</v>
       </c>
       <c r="H175">
-        <v>39805.473046875</v>
+        <v>42897.3779296875</v>
       </c>
       <c r="I175">
-        <v>40354.1578125</v>
+        <v>42650.91341145834</v>
       </c>
       <c r="J175">
-        <v>42533.84397843559</v>
+        <v>42796.68272836325</v>
       </c>
       <c r="L175">
-        <v>47.56420377037421</v>
+        <v>48.53861513851907</v>
       </c>
       <c r="M175">
-        <v>44.95230277436053</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>50.51965700210961</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>39962.18359375</v>
+        <v>42510.34375</v>
       </c>
       <c r="C176">
-        <v>39980.28125</v>
+        <v>43243.16796875</v>
       </c>
       <c r="D176">
-        <v>39636.14453125</v>
+        <v>42376.21484375</v>
       </c>
       <c r="E176">
-        <v>39937.8046875</v>
+        <v>43178.9609375</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>416905216</v>
       </c>
       <c r="G176">
-        <v>40107.72874666766</v>
+        <v>42646.45188576539</v>
       </c>
       <c r="H176">
-        <v>39768.1556640625</v>
+        <v>42945.166796875</v>
       </c>
       <c r="I176">
-        <v>40296.37239583334</v>
+        <v>42693.03190104166</v>
       </c>
       <c r="J176">
-        <v>42499.45935206558</v>
+        <v>42801.74601590149</v>
       </c>
       <c r="L176">
-        <v>47.22662718612987</v>
+        <v>58.27806284878505</v>
       </c>
       <c r="M176">
-        <v>44.76875788476706</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>57.15268189140777</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B177">
-        <v>39936.81640625</v>
+        <v>43192.3984375</v>
       </c>
       <c r="C177">
-        <v>40180.0546875</v>
+        <v>43211.50390625</v>
       </c>
       <c r="D177">
-        <v>39825.69140625</v>
+        <v>42891.515625</v>
       </c>
       <c r="E177">
-        <v>40054.82421875</v>
+        <v>43070.765625</v>
       </c>
       <c r="F177">
-        <v>396767232</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>40102.91924412968</v>
+        <v>42685.02586205944</v>
       </c>
       <c r="H177">
-        <v>39783.4794921875</v>
+        <v>42968.6150390625</v>
       </c>
       <c r="I177">
-        <v>40242.869921875</v>
+        <v>42724.73098958333</v>
       </c>
       <c r="J177">
-        <v>42467.08007877664</v>
+        <v>42805.30918953194</v>
       </c>
       <c r="L177">
-        <v>50.72987306177554</v>
+        <v>56.22491222873539</v>
       </c>
       <c r="M177">
-        <v>46.84999092312433</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>55.77177400905031</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B178">
-        <v>40051.75</v>
+        <v>43077.640625</v>
       </c>
       <c r="C178">
-        <v>40181.91015625</v>
+        <v>43398.3125</v>
       </c>
       <c r="D178">
-        <v>39902.55078125</v>
+        <v>43017.24609375</v>
       </c>
       <c r="E178">
-        <v>39958.69921875</v>
+        <v>43027.265625</v>
       </c>
       <c r="F178">
-        <v>212871168</v>
+        <v>156850176</v>
       </c>
       <c r="G178">
-        <v>40089.80833273153</v>
+        <v>42716.13856778131</v>
       </c>
       <c r="H178">
-        <v>39806.235546875</v>
+        <v>42969.323828125</v>
       </c>
       <c r="I178">
-        <v>40187.15455729167</v>
+        <v>42751.32591145833</v>
       </c>
       <c r="J178">
-        <v>42433.85649122662</v>
+        <v>42808.24900986927</v>
       </c>
       <c r="L178">
-        <v>47.79767653461344</v>
+        <v>55.34302724426104</v>
       </c>
       <c r="M178">
-        <v>45.33863408539374</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+        <v>55.19435871799595</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179">
-        <v>39962.73828125</v>
+        <v>43028.625</v>
       </c>
       <c r="C179">
-        <v>41299.84375</v>
+        <v>43228.28125</v>
       </c>
       <c r="D179">
-        <v>39962.73828125</v>
+        <v>42935.296875</v>
       </c>
       <c r="E179">
-        <v>41279.234375</v>
+        <v>43095.875</v>
       </c>
       <c r="F179">
-        <v>3081857024</v>
+        <v>352919552</v>
       </c>
       <c r="G179">
-        <v>40197.93797293775</v>
+        <v>42750.66006161937</v>
       </c>
       <c r="H179">
-        <v>39871.9462890625</v>
+        <v>42960.307421875</v>
       </c>
       <c r="I179">
-        <v>40173.34140625</v>
+        <v>42774.92174479167</v>
       </c>
       <c r="J179">
-        <v>42418.56348306468</v>
+        <v>42812.05862563258</v>
       </c>
       <c r="L179">
-        <v>72.42780802998195</v>
+        <v>56.55222526776639</v>
       </c>
       <c r="M179">
-        <v>62.99816228412041</v>
-      </c>
-      <c r="O179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>55.96866812171056</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B180">
-        <v>41272.875</v>
+        <v>43083.5078125</v>
       </c>
       <c r="C180">
-        <v>41541.41015625</v>
+        <v>43160.18359375</v>
       </c>
       <c r="D180">
-        <v>40942.30859375</v>
+        <v>42938.38671875</v>
       </c>
       <c r="E180">
-        <v>41400.3671875</v>
+        <v>43128.0546875</v>
       </c>
       <c r="F180">
-        <v>1963061248</v>
+        <v>254484480</v>
       </c>
       <c r="G180">
-        <v>40307.24971971614</v>
+        <v>42784.96866397215</v>
       </c>
       <c r="H180">
-        <v>39956.6892578125</v>
+        <v>42941.3681640625</v>
       </c>
       <c r="I180">
-        <v>40165.28697916667</v>
+        <v>42796.94270833334</v>
       </c>
       <c r="J180">
-        <v>42405.07743941482</v>
+        <v>42816.24400393547</v>
       </c>
       <c r="L180">
-        <v>73.70797126601215</v>
+        <v>57.16424504482335</v>
       </c>
       <c r="M180">
-        <v>64.14255344036002</v>
-      </c>
-      <c r="O180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+        <v>56.3496919981739</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181">
-        <v>41400.65625</v>
+        <v>43131.89453125</v>
       </c>
       <c r="C181">
-        <v>42164.74609375</v>
+        <v>43208.87890625</v>
       </c>
       <c r="D181">
-        <v>41400.65625</v>
+        <v>42584.3359375</v>
       </c>
       <c r="E181">
-        <v>42022.640625</v>
+        <v>43204.4375</v>
       </c>
       <c r="F181">
-        <v>1850863616</v>
+        <v>566988800</v>
       </c>
       <c r="G181">
-        <v>40463.19434746922</v>
+        <v>42823.10219452014</v>
       </c>
       <c r="H181">
-        <v>40119.72734375</v>
+        <v>42933.999609375</v>
       </c>
       <c r="I181">
-        <v>40176.040234375</v>
+        <v>42828.43294270834</v>
       </c>
       <c r="J181">
-        <v>42400.01205114443</v>
+        <v>42821.38563964493</v>
       </c>
       <c r="L181">
-        <v>79.27032430352612</v>
+        <v>58.71711229970718</v>
       </c>
       <c r="M181">
-        <v>69.38145145033093</v>
-      </c>
-      <c r="O181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+        <v>57.29434915752675</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182">
-        <v>42058.94140625</v>
+        <v>43205.28125</v>
       </c>
       <c r="C182">
-        <v>42209.38671875</v>
+        <v>43422.48828125</v>
       </c>
       <c r="D182">
-        <v>41850.86328125</v>
+        <v>43205.28125</v>
       </c>
       <c r="E182">
-        <v>41977.97265625</v>
+        <v>43322.26953125</v>
       </c>
       <c r="F182">
-        <v>370761728</v>
+        <v>315506688</v>
       </c>
       <c r="G182">
-        <v>40600.90146644929</v>
+        <v>42868.48104331376</v>
       </c>
       <c r="H182">
-        <v>40260.682421875</v>
+        <v>42922.9912109375</v>
       </c>
       <c r="I182">
-        <v>40190.96302083333</v>
+        <v>42879.62890625</v>
       </c>
       <c r="J182">
-        <v>42394.42212538424</v>
+        <v>42828.0198633748</v>
       </c>
       <c r="L182">
-        <v>77.93878031077936</v>
+        <v>61.16065559544938</v>
       </c>
       <c r="M182">
-        <v>68.60658649501897</v>
-      </c>
-      <c r="O182" t="s">
-        <v>195</v>
+        <v>58.77647287716027</v>
       </c>
     </row>
   </sheetData>
